--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId1"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId1"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -133,8 +134,123 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -232,10 +348,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>2018年期权交易费用</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>期货空头汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -333,10 +445,6 @@
   </si>
   <si>
     <t>昨日交易费用汇总</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年交易费用总额</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -429,6 +537,14 @@
   </si>
   <si>
     <t>2018年度自营盈亏</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatility</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Offsets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +552,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1082,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1241,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1448,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1600,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
@@ -1603,7 +1727,10 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <f>E8+'20180508_Open'!E10</f>
+        <v>128</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>22</v>
@@ -1614,65 +1741,71 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11" s="5">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7"/>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180508_Open'!B13</f>
+        <v>60.5</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1760700</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5"/>
       <c r="G16" s="6" t="s">
@@ -1680,29 +1813,33 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>2744710.06</v>
+        <v>2728816.6400000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="5"/>
       <c r="G17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>2728816.6400000001</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
@@ -1710,14 +1847,14 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
       <c r="G20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="11"/>
       <c r="N21" s="5"/>
@@ -1725,43 +1862,43 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="11"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>31326279.579999998</v>
+        <v>31310386.16</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
@@ -1769,26 +1906,26 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$25</f>
-        <v>0</v>
+        <v>188.5</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I26</f>
@@ -1796,13 +1933,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5">
-        <f>B15+E11+I27</f>
-        <v>0</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
@@ -1814,17 +1946,779 @@
     </row>
     <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-541944</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-41628</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.76</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.65</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>503</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2638903</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5883</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7442</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-1559</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5927051.5300000003</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3100014.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1351707</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2813482.55</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24450228.109999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>286532</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>23098521.109999999</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1469.58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>190</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>17800000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8</f>
+        <v>128</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9</f>
+        <v>1469.58</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12</f>
+        <v>60.5</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>1638239</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$25</f>
+        <v>188.5</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I26</f>
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
@@ -1846,11 +2740,13 @@
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>150</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5">
         <v>-233165</v>
@@ -1874,11 +2770,11 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="15">
         <v>-34275</v>
@@ -1902,11 +2798,11 @@
     </row>
     <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="13"/>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="15">
         <v>-372</v>
@@ -1930,11 +2826,11 @@
     </row>
     <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="13"/>
       <c r="D37" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5">
         <v>388</v>
@@ -1958,11 +2854,11 @@
     </row>
     <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1985,20 +2881,20 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" s="10"/>
       <c r="D39" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="10"/>
       <c r="D40" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="5">
         <v>2633004</v>
@@ -2008,7 +2904,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="D41" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" s="5">
         <v>2754</v>
@@ -2035,7 +2931,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="17"/>
       <c r="D42" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E42" s="5">
         <v>2754</v>
@@ -2060,7 +2956,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -2070,7 +2966,7 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="D44" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
@@ -2082,7 +2978,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="15">
         <v>2630250</v>

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId1"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId2"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId1"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId2"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -249,8 +250,123 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="75">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -545,6 +661,10 @@
   </si>
   <si>
     <t>Base Offsets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 1812</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1572,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1639,10 +1759,14 @@
       </c>
       <c r="E4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1654,7 +1778,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1669,7 +1793,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1686,7 +1810,7 @@
         <v>3089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1703,9 +1827,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,22 +1850,25 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180508_Open'!E10</f>
-        <v>128</v>
+        <f>E8+'20180509_Open'!E10</f>
+        <v>192</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9</f>
-        <v>0</v>
+        <f>B9+'20180509_Open'!B11</f>
+        <v>2318.0699999999997</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -1751,7 +1876,10 @@
       <c r="H11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1769,8 +1897,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180508_Open'!B13</f>
-        <v>60.5</v>
+        <f>B12+'20180509_Open'!B13</f>
+        <v>335.02</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -1784,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>1760700</v>
+        <v>2259900</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -1823,18 +1951,14 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2728816.6400000001</v>
-      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1842,7 +1966,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-2728816.6400000001</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
@@ -1854,22 +1981,24 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I23" s="11"/>
       <c r="N23" s="5"/>
@@ -1879,9 +2008,12 @@
         <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21+'20180509_Open'!I21</f>
+        <v>131.46</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -1892,9 +2024,9 @@
         <v>31310386.16</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1906,7 +2038,7 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -1915,20 +2047,16 @@
         <v>46</v>
       </c>
       <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$25</f>
-        <v>188.5</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="5"/>
+        <f>$B$13+$E$10+$I$24</f>
+        <v>658.48</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="5">
-        <f>B12+E8+I26</f>
+        <f>B12+E8+I25</f>
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +2115,7 @@
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-541944</v>
+        <v>194361</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>52</v>
@@ -2019,13 +2147,13 @@
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>-41628</v>
+        <v>22928</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H35" s="23">
-        <v>23.76</v>
+        <v>23.46</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2051,13 +2179,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>1031</v>
+        <v>1695</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H36" s="23">
-        <v>23.65</v>
+        <v>23.35</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2083,7 +2211,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>503</v>
+        <v>-270</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>58</v>
@@ -2155,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2638903</v>
+        <v>2650487</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>52</v>
@@ -2171,13 +2299,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>5883</v>
+        <v>11585</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2202,7 +2330,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>7442</v>
+        <v>8780</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>56</v>
@@ -2231,13 +2359,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-1559</v>
+        <v>2805</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H43" s="22">
-        <v>5.6000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -2247,7 +2375,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>8653</v>
+        <v>20237</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -2309,6 +2437,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7711124.1900000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3162980.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4778539.8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2620568.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24490512.48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>542412</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>19711972.68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>848.49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180508_Open'!E10</f>
+        <v>192</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180508_Open'!B11</f>
+        <v>2318.0699999999997</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>274.52</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180508_Open'!B13</f>
+        <v>335.02</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1760700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2103171.1800000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>612900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-12745.459999999963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>131.46</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21</f>
+        <v>131.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>658.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>338.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>230</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-541944</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-41628</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.76</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.65</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>503</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>230</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2638903</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5883</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7442</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-1559</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,10 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId1"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId2"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId3"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId1"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId2"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId3"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId4"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId5"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId6"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -365,8 +372,468 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="81">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -666,6 +1133,54 @@
   <si>
     <t>IH 1812</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Futures Offsets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,7 +1194,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -872,6 +1387,13 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1320,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1891,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1425,6 +1951,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20180515_Open "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1692,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1762,11 +2301,9 @@
         <v>11</v>
       </c>
       <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1780,7 +2317,9 @@
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1845,13 +2384,15 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>9500000</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5">
-        <f>E8+'20180509_Open'!E10</f>
-        <v>192</v>
+      <c r="E10" s="5" t="e">
+        <f>E8+'[1]20180515_Open '!E10</f>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -1859,16 +2400,16 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
-        <f>B9+'20180509_Open'!B11</f>
-        <v>2318.0699999999997</v>
+      <c r="B11" s="5" t="e">
+        <f>B9+'[1]20180515_Open '!B11</f>
+        <v>#REF!</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -1878,7 +2419,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1896,9 +2437,9 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <f>B12+'20180509_Open'!B13</f>
-        <v>335.02</v>
+      <c r="B13" s="5" t="e">
+        <f>B12+'[1]20180515_Open '!B13</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -1912,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>2259900</v>
+        <v>2920100</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -1929,7 +2470,10 @@
       <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1951,7 +2495,7 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
@@ -1983,9 +2527,7 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
+      <c r="I21" s="11"/>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2011,8 +2553,8 @@
         <v>43</v>
       </c>
       <c r="I24" s="11">
-        <f>I21+'20180509_Open'!I21</f>
-        <v>131.46</v>
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2026,7 +2568,9 @@
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2046,9 +2590,9 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="5" t="e">
         <f>$B$13+$E$10+$I$24</f>
-        <v>658.48</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2057,7 +2601,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>397.39</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2108,20 +2652,20 @@
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B34" s="13"/>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>194361</v>
+        <v>-224561</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>23.92</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2140,20 +2684,20 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>22928</v>
+        <v>203749</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>23.46</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2172,20 +2716,20 @@
     </row>
     <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="13"/>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>1695</v>
+        <v>7750</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>23.35</v>
+        <v>18.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2204,20 +2748,20 @@
     </row>
     <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B37" s="13"/>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-270</v>
+        <v>-1556</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>23.8</v>
+        <v>18.78</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2238,10 +2782,7 @@
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>0</v>
-      </c>
+      <c r="B38" s="13"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="G38" s="5"/>
@@ -2283,13 +2824,13 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2650487</v>
+        <v>2664980</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H40" s="22">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2299,13 +2840,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>11585</v>
+        <v>4273</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2330,13 +2871,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>8780</v>
+        <v>4945</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2359,13 +2900,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>2805</v>
+        <v>-672</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -2375,7 +2916,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>20237</v>
+        <v>34730</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -2388,51 +2929,100 @@
       <c r="E45" s="15">
         <v>2630250</v>
       </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="5"/>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="5"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-92</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2440,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2483,13 +3073,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>7711124.1900000004</v>
+        <v>8759261.0199999996</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>3162980.55</v>
+        <v>3128965.55</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -2506,22 +3096,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>4778539.8</v>
+        <v>6341224.5</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
-        <v>2620568.5499999998</v>
+        <v>2611857.5499999998</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2529,26 +3119,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>24490512.48</v>
+        <v>24601273.050000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>542412</v>
+        <v>517108</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>19711972.68</v>
+        <v>18260048.550000001</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -2588,7 +3180,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2599,13 +3191,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>848.49</v>
+        <v>787.53</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2614,14 +3206,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>12000000</v>
+        <v>9500000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180508_Open'!E10</f>
-        <v>192</v>
+        <f>E8+'20180514_Open '!E10</f>
+        <v>336</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2629,7 +3221,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,8 +3229,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180508_Open'!B11</f>
-        <v>2318.0699999999997</v>
+        <f>B9+'20180514_Open '!B11</f>
+        <v>6422.15</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -2648,7 +3240,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2656,7 +3248,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>274.52</v>
+        <v>790.65</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -2669,8 +3261,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180508_Open'!B13</f>
-        <v>335.02</v>
+        <f>B12+'20180514_Open '!B13</f>
+        <v>2831.41</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -2684,7 +3276,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>1760700</v>
+        <v>2310100</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -2701,7 +3293,10 @@
       <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -2723,18 +3318,14 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2103171.1800000002</v>
-      </c>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>612900</v>
-      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -2744,7 +3335,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-12745.459999999963</v>
+        <v>-2728816.6400000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2759,9 +3350,7 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11">
-        <v>131.46</v>
-      </c>
+      <c r="I21" s="11"/>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2787,8 +3376,8 @@
         <v>43</v>
       </c>
       <c r="I24" s="11">
-        <f>I21</f>
-        <v>131.46</v>
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2802,7 +3391,9 @@
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2810,7 +3401,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>5933851.7999999998</v>
+        <v>6858332.5</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -2824,7 +3415,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>658.48</v>
+        <v>3167.41</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2833,7 +3424,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>338.52</v>
+        <v>1220.04</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2884,22 +3475,20 @@
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13">
-        <v>230</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-541944</v>
+        <v>390118</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>23.92</v>
+        <v>20.87</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2918,20 +3507,20 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>-41628</v>
+        <v>33201</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>23.76</v>
+        <v>19.53</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2950,20 +3539,20 @@
     </row>
     <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="13"/>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>1031</v>
+        <v>2454</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>23.65</v>
+        <v>19.61</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2982,20 +3571,20 @@
     </row>
     <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B37" s="13"/>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>503</v>
+        <v>-299</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>23.8</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3017,8 +3606,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3061,13 +3649,13 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2638903</v>
+        <v>2660707</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H40" s="22">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,13 +3665,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>5883</v>
+        <v>9779</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3108,13 +3696,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>7442</v>
+        <v>1110</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3137,13 +3725,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-1559</v>
+        <v>8669</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.6000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3153,7 +3741,841 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>8653</v>
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-92</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5942719.8799999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3182466.79</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12521031.6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2450342.69</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24464183.27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>732124.1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11943151.67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>431.79</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180511_Open'!E10</f>
+        <v>304</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180511_Open'!B11</f>
+        <v>5634.62</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>698.29</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180511_Open'!B13</f>
+        <v>2040.76</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5730060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4309900</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-13915860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>-8185800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>665979.82999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2088909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>26072.189999999944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1056.81</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1056.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>15342064.699999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>3401.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1111.6799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>674288</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.83</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>26845</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>21.17</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>21.46</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-81</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>21.74</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2649297</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1396</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>6297</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-4902</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>19047</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3210,15 +4632,2376 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2475619.2400000002</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3188572.79</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11735857.699999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2462124.9900000002</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24513720.870000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>726447.8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>12777863.17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2243.9299999999998</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10300000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180510_Open'!E10</f>
+        <v>288</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180510_Open'!B11</f>
+        <v>5202.83</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>519.99</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180510_Open'!B13</f>
+        <v>1342.47</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>820260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4309900</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-9843120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>-9022860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1261441.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1473120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>5744.5799999996088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>659.42</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>659.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>283.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>13935425.5</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>2289.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>835.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13">
+        <v>390</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-872440</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.51</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-4848</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>22.06</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1482</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>21.95</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>124</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>22.4</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>460</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2649034</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-1453</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2813</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-4266</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9355848.4000000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3128965.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6126588.9000000004</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2611857.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24483078.129999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>517108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18356489.23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>640.83000000000004</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180509_Open'!E10</f>
+        <v>256</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180509_Open'!B11</f>
+        <v>2958.8999999999996</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>487.46</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180509_Open'!B13</f>
+        <v>822.48</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2446740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2259900</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5709060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>-3262320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>1882559.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>854784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>8527.1000000000931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>244.44</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21+'20180509_Open'!I21</f>
+        <v>375.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>1454.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>551.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>240</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>194361</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>22928</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.46</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1695</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.35</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-270</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>260</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2650487</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>11585</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8780</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2805</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7711124.1900000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3162980.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4778539.8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2620568.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24490512.48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>542412</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>19711972.68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>848.49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180508_Open'!E10</f>
+        <v>192</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180508_Open'!B11</f>
+        <v>2318.0699999999997</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>274.52</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180508_Open'!B13</f>
+        <v>335.02</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1760700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2103171.1800000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>612900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-12745.459999999963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>131.46</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21</f>
+        <v>131.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>658.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>338.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>230</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-541944</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-41628</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.76</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.65</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>503</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>230</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2638903</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5883</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7442</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-1559</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E37"/>
     </sheetView>
   </sheetViews>

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,17 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId1"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId2"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId3"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId4"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId5"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId6"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId7"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId1"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId2"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId3"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId4"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId5"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId6"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId7"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -832,8 +830,123 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="81">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -1953,19 +2066,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20180515_Open "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2232,7 +2332,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2392,9 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>11334220.5</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2405,9 @@
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2318,9 +2422,11 @@
         <v>13</v>
       </c>
       <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2334,7 +2440,9 @@
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2346,12 +2454,14 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>3089896.15</v>
+        <v>5089896.1500000004</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2359,12 +2469,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>25491673.370000001</v>
+        <v>23491673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>574.4</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -2384,15 +2496,13 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
-        <v>9500000</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="e">
-        <f>E8+'[1]20180515_Open '!E10</f>
-        <v>#REF!</v>
+      <c r="E10" s="5">
+        <f>E8+'20180516_Open'!E10</f>
+        <v>1465.6</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2400,16 +2510,16 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="e">
-        <f>B9+'[1]20180515_Open '!B11</f>
-        <v>#REF!</v>
+      <c r="B11" s="5">
+        <f>B9+'20180516_Open'!B11</f>
+        <v>7217.5599999999995</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -2419,14 +2529,16 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>682.42</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -2437,9 +2549,9 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="e">
-        <f>B12+'[1]20180515_Open '!B13</f>
-        <v>#REF!</v>
+      <c r="B13" s="5">
+        <f>B12+'20180516_Open'!B13</f>
+        <v>3857.1</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -2453,13 +2565,15 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>2920100</v>
+        <v>4190100</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -2563,14 +2677,12 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
+        <v>31310386.160000004</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5">
-        <v>397.39</v>
-      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2578,7 +2690,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>11334220.5</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -2590,9 +2702,9 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="e">
+      <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>#REF!</v>
+        <v>5322.7</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2601,7 +2713,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>397.39</v>
+        <v>1256.82</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2659,13 +2771,13 @@
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-224561</v>
+        <v>200470</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>20.170000000000002</v>
+        <v>19.61</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2691,13 +2803,13 @@
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>203749</v>
+        <v>446611</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>18.829999999999998</v>
+        <v>19.66</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2723,13 +2835,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>7750</v>
+        <v>10679</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>18.5</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2755,13 +2867,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-1556</v>
+        <v>-3245</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.78</v>
+        <v>20.02</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2824,7 +2936,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2664980</v>
+        <v>2709896</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>75</v>
@@ -2840,13 +2952,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>4273</v>
+        <v>44916</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>1.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2871,13 +2983,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>4945</v>
+        <v>21413</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2900,13 +3012,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-672</v>
+        <v>23503</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>0.06</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -2916,7 +3028,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>34730</v>
+        <v>79646</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -2974,10 +3086,10 @@
         <v>56</v>
       </c>
       <c r="H48" s="13">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="I48" s="13">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="J48" s="13">
         <v>-42</v>
@@ -2991,10 +3103,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="I49" s="13">
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="J49" s="13">
         <v>-160</v>
@@ -3012,7 +3124,7 @@
         <v>-32</v>
       </c>
       <c r="I50" s="13">
-        <v>-92</v>
+        <v>-99</v>
       </c>
       <c r="J50" s="13">
         <v>-238</v>
@@ -3027,6 +3139,837 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7599095.2800000003</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2740652.5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8001074</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1199722.2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24600964.690000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1540930.3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16599890.689999999</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>795.41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>617</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180515_Open'!E10</f>
+        <v>891.2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180515_Open'!B11</f>
+        <v>7217.5599999999995</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>343.27</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180515_Open'!B13</f>
+        <v>3174.68</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3291720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2920100</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>3291720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>2185932.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>492723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-50161.600000000093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1704.6</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1704.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>10034727.300000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>5770.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1295.8600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-224561</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>203749</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>7750</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-1556</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.78</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2664980</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4273</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4945</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-672</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-92</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -3851,7 +4794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4637,7 +5580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5430,7 +6373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6219,7 +7162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6997,7 +7940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId1"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId2"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId3"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId4"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId5"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId6"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId7"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId8"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId1"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId2"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId3"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId4"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId5"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId6"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId7"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId8"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -945,8 +946,123 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="81">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2332,7 +2448,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>11334220.5</v>
+        <v>13729227.300000001</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -2403,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9">
         <v>-1</v>
@@ -2422,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
         <v>-1</v>
@@ -2475,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>574.4</v>
+        <v>454.4</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2496,13 +2612,15 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>3500000</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180516_Open'!E10</f>
-        <v>1465.6</v>
+        <f>E8+'20180517_Open'!E10</f>
+        <v>1920</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2510,7 +2628,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,8 +2636,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180516_Open'!B11</f>
-        <v>7217.5599999999995</v>
+        <f>B9+'20180517_Open'!B11</f>
+        <v>7753.33</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -2537,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>682.42</v>
+        <v>797.23</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -2550,8 +2668,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180516_Open'!B13</f>
-        <v>3857.1</v>
+        <f>B12+'20180517_Open'!B13</f>
+        <v>4469.83</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -2565,15 +2683,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>4190100</v>
+        <v>5105700</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -2690,7 +2806,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>11334220.5</v>
+        <v>13729227.300000001</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -2704,7 +2820,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>5322.7</v>
+        <v>6389.83</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2713,7 +2829,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>1256.82</v>
+        <v>1251.6300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,13 +2887,13 @@
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>200470</v>
+        <v>605145</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>19.61</v>
+        <v>19.38</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2803,13 +2919,13 @@
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>446611</v>
+        <v>621968</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>19.66</v>
+        <v>18.63</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2835,13 +2951,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>10679</v>
+        <v>13002</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>19.739999999999998</v>
+        <v>18.91</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2867,13 +2983,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3245</v>
+        <v>-4304</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>20.02</v>
+        <v>19.39</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2936,7 +3052,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2709896</v>
+        <v>2724403</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>75</v>
@@ -2952,13 +3068,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>44916</v>
+        <v>14507</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2983,13 +3099,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>21413</v>
+        <v>20666</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3012,13 +3128,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>23503</v>
+        <v>-6159</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.2999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3028,7 +3144,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>79646</v>
+        <v>94153</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3086,13 +3202,13 @@
         <v>56</v>
       </c>
       <c r="H48" s="13">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I48" s="13">
         <v>-21</v>
       </c>
       <c r="J48" s="13">
-        <v>-42</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,13 +3219,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="I49" s="13">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="J49" s="13">
-        <v>-160</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3121,13 +3237,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="I50" s="13">
         <v>-99</v>
       </c>
       <c r="J50" s="13">
-        <v>-238</v>
+        <v>-248</v>
       </c>
     </row>
   </sheetData>
@@ -3139,6 +3255,845 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5137278.3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4605072.9000000004</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11334220.5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2407920.2999999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22472034.57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2197152.6</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11137814.07</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>574.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>535.77</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>612</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180516_Open'!E10</f>
+        <v>1465.6</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180516_Open'!B11</f>
+        <v>7753.33</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>497.92</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180516_Open'!B13</f>
+        <v>3672.6</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8914800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4190100</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1625580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>7289220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1297270.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1339929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-91617.450000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1949.45</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1949.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>244.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>14871302.1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>7087.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1317.1699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200470</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.61</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>446611</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>19.66</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>10679</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3245</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>20.02</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2709896</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>44916</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>21413</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23503</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-8</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-77</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -3969,11 +4924,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -4794,7 +5749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5580,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6373,7 +7328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7162,7 +8117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7940,7 +8895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,21 +12,253 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId1"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId2"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId3"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId4"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId5"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId6"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId7"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId8"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId9"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId1"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId2"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId3"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId4"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId5"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId6"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId7"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId8"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId9"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId10"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1062,7 +1294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="82">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -1410,6 +1642,10 @@
       <t>C</t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 1807</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2447,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2508,22 +2744,18 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <v>13729227.300000001</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>4</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2535,14 +2767,12 @@
       </c>
       <c r="E5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2557,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -2590,9 +2820,7 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>454.4</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -2601,7 +2829,9 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2613,14 +2843,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180517_Open'!E10</f>
-        <v>1920</v>
+        <f>E8+'20180521_Open'!E10</f>
+        <v>2100.8000000000002</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2628,7 +2858,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,8 +2866,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180517_Open'!B11</f>
-        <v>7753.33</v>
+        <f>B9+'20180521_Open'!B11</f>
+        <v>8534.75</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -2647,16 +2877,14 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
-        <v>797.23</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -2668,8 +2896,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180517_Open'!B13</f>
-        <v>4469.83</v>
+        <f>B12+'20180521_Open'!B13</f>
+        <v>4723.8099999999995</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -2683,7 +2911,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>5105700</v>
+        <v>6219700</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -2806,7 +3034,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>13729227.300000001</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -2820,7 +3048,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>6389.83</v>
+        <v>6824.61</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2829,7 +3057,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>1251.6300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2887,13 +3115,13 @@
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>605145</v>
+        <v>-139817</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>19.38</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2919,13 +3147,13 @@
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>621968</v>
+        <v>539616</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>18.63</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2951,13 +3179,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>13002</v>
+        <v>15314</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>18.91</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2983,13 +3211,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-4304</v>
+        <v>-3331</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>19.39</v>
+        <v>17.87</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3052,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2724403</v>
+        <v>2673855</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>75</v>
@@ -3068,13 +3296,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>14507</v>
+        <v>-29975</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3099,13 +3327,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>20666</v>
+        <v>4997</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3128,13 +3356,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-6159</v>
+        <v>-34973</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3144,7 +3372,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>94153</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3202,13 +3430,13 @@
         <v>56</v>
       </c>
       <c r="H48" s="13">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="I48" s="13">
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="J48" s="13">
-        <v>-47</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3219,10 +3447,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-31</v>
+        <v>-17</v>
       </c>
       <c r="I49" s="13">
-        <v>-76</v>
+        <v>-46</v>
       </c>
       <c r="J49" s="13">
         <v>-165</v>
@@ -3237,10 +3465,10 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-31</v>
+        <v>-19</v>
       </c>
       <c r="I50" s="13">
-        <v>-99</v>
+        <v>-62</v>
       </c>
       <c r="J50" s="13">
         <v>-248</v>
@@ -3254,7 +3482,3182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7711124.1900000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3162980.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4778539.8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2620568.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24490512.48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>542412</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>19711972.68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>848.49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180508_Open'!E10</f>
+        <v>192</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180508_Open'!B11</f>
+        <v>2318.0699999999997</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>274.52</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180508_Open'!B13</f>
+        <v>335.02</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1760700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2103171.1800000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>612900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-12745.459999999963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>131.46</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21</f>
+        <v>131.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>658.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>338.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>230</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-541944</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-41628</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.76</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.65</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>503</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>230</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2638903</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5883</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7442</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-1559</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5927051.5300000003</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3100014.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1351707</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2813482.55</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24450228.109999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>286532</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>23098521.109999999</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1469.58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>190</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>17800000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8</f>
+        <v>128</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9</f>
+        <v>1469.58</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12</f>
+        <v>60.5</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>1638239</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$25</f>
+        <v>188.5</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I26</f>
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>150</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-233165</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-34275</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>-372</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>388</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>150</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2633004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2754</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2754</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4485199.1500000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4015210.25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18200960.100000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1069128.95</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22686159.25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2946081.3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4485199.1500000004</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>180.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>166</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180518_Open'!E10</f>
+        <v>2100.8000000000002</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180518_Open'!B11</f>
+        <v>8534.75</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>484.23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180518_Open'!B13</f>
+        <v>4723.8099999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6552540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6659700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-820560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>5731980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1676376.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>979290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-73149.990000000224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3721.76</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3721.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>442.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>22126331.400000002</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>10546.369999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1107.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1828652</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.15</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>501098</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.7</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>14619</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.28</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3717</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.39</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2703862</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-20541</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-7368</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-13173</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>73612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5164891.24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4071009.75</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13729227.300000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1578662.4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22394899.359999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2492347.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8665672.6600000001</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>454.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>781.42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>439</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180517_Open'!E10</f>
+        <v>1920</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180517_Open'!B11</f>
+        <v>8534.75</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>566.98</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180517_Open'!B13</f>
+        <v>4239.58</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>12091980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5105700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-806160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11285820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>755108.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1815741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-157966.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3279.75</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3279.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1330.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>18037315.649999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>9439.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2351.6799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>605145</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.38</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>621968</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.63</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>13002</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.91</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4304</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.39</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2724403</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>14507</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>20666</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-6159</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4093,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4924,7 +8327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5749,7 +9152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6535,7 +9938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7328,7 +10731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8115,1505 +11518,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>7711124.1900000004</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3162980.55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4778539.8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2620568.5499999998</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24490512.48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>542412</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>19711972.68</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>64</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>848.49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>12000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180508_Open'!E10</f>
-        <v>192</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180508_Open'!B11</f>
-        <v>2318.0699999999997</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>274.52</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180508_Open'!B13</f>
-        <v>335.02</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1760700</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2103171.1800000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>612900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-12745.459999999963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>131.46</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>I21</f>
-        <v>131.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>658.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>338.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13">
-        <v>230</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-541944</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="23">
-        <v>23.92</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>-41628</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="23">
-        <v>23.76</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1031</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="23">
-        <v>23.65</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>503</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="23">
-        <v>23.8</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>230</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2638903</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="22">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>5883</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>7442</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-1559</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5927051.5300000003</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3100014.55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1351707</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2813482.55</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24450228.109999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>286532</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>23098521.109999999</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>128</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1469.58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>190</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>17800000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8</f>
-        <v>128</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9</f>
-        <v>1469.58</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7">
-        <v>60.5</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12</f>
-        <v>60.5</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>1638239</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$25</f>
-        <v>188.5</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I26</f>
-        <v>188.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13">
-        <v>150</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-233165</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>-34275</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>-372</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>388</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>150</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2633004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>2754</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2754</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId1"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId2"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId3"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId4"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId5"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId6"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId7"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId8"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId9"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId10"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId11"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId1"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId2"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId3"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId4"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId5"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId6"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId7"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId8"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId9"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId10"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId11"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -259,6 +260,121 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1294,7 +1410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -1645,6 +1761,18 @@
   </si>
   <si>
     <t>IH 1807</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权资金使用</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2683,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2881,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -2761,7 +2889,10 @@
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>0</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -2806,7 +2937,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -2820,7 +2951,9 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>460.8</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -2829,28 +2962,26 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>542</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180521_Open'!E10</f>
-        <v>2100.8000000000002</v>
+        <f>E8+'20180522_Open'!E10</f>
+        <v>2739.2000000000003</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2858,7 +2989,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2866,8 +2997,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180521_Open'!B11</f>
-        <v>8534.75</v>
+        <f>B9+'20180522_Open'!B11</f>
+        <v>8620.91</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -2896,8 +3027,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180521_Open'!B13</f>
-        <v>4723.8099999999995</v>
+        <f>B12+'20180522_Open'!B13</f>
+        <v>4963.3399999999992</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -2911,13 +3042,15 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6219700</v>
+        <v>6569700</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3048,7 +3181,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>6824.61</v>
+        <v>7702.5399999999991</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3057,7 +3190,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>460.8</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3115,13 +3248,13 @@
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-139817</v>
+        <v>-885371</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>18.760000000000002</v>
+        <v>20.82</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3147,13 +3280,13 @@
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>539616</v>
+        <v>702470</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>17.010000000000002</v>
+        <v>16.98</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3179,13 +3312,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>15314</v>
+        <v>20141</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.489999999999998</v>
+        <v>17.25</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3211,13 +3344,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3331</v>
+        <v>-4608</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.87</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3238,7 +3371,9 @@
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13">
+        <v>2011</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="G38" s="5"/>
@@ -3280,7 +3415,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2673855</v>
+        <v>2684494</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>75</v>
@@ -3296,13 +3431,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-29975</v>
+        <v>10639</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3321,13 +3456,15 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="B42" s="17"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>4997</v>
+        <v>11061</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
@@ -3352,31 +3489,38 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-34973</v>
+        <v>-421</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>43605</v>
+        <v>54244</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -3390,7 +3534,9 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
@@ -3405,12 +3551,14 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H47" s="13">
         <v>0</v>
@@ -3427,13 +3575,13 @@
       <c r="B48" s="5"/>
       <c r="F48" s="13"/>
       <c r="G48" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H48" s="13">
         <v>-15</v>
       </c>
       <c r="I48" s="13">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="J48" s="13">
         <v>-38</v>
@@ -3450,7 +3598,7 @@
         <v>-17</v>
       </c>
       <c r="I49" s="13">
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="J49" s="13">
         <v>-165</v>
@@ -3465,10 +3613,10 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="I50" s="13">
-        <v>-62</v>
+        <v>-58</v>
       </c>
       <c r="J50" s="13">
         <v>-248</v>
@@ -3483,6 +3631,795 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9355848.4000000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3128965.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6126588.9000000004</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2611857.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24483078.129999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>517108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18356489.23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>640.83000000000004</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180509_Open'!E10</f>
+        <v>256</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180509_Open'!B11</f>
+        <v>2958.8999999999996</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>487.46</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180509_Open'!B13</f>
+        <v>822.48</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2446740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2259900</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5709060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>-3262320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>1882559.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>854784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>8527.1000000000931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>244.44</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I21+'20180509_Open'!I21</f>
+        <v>375.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>1454.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>551.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="13">
+        <v>240</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>194361</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>23.92</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>22928</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>23.46</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1695</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>23.35</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-270</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>260</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2650487</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>11585</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8780</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2805</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4260,7 +5197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4987,6 +5924,857 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4691709.63</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3960391.38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17017099.199999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>779422.03</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>22708894.989999998</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3180969.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5691795.79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>177.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>86.16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>217</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180521_Open'!E10</f>
+        <v>2278.4</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180521_Open'!B11</f>
+        <v>8620.91</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>239.53</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180521_Open'!B13</f>
+        <v>4963.3399999999992</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6219700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1060413.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1594170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-74233.450000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3835.22</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3835.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>113.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>21792238.550000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>11076.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>530.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-139817</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>539616</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>15314</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3331</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.87</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2011</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2673855</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-29975</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4997</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-34973</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-24</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-46</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-62</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -5818,7 +7606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6657,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7496,7 +9284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8327,7 +10115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9152,7 +10940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9938,7 +11726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10729,793 +12517,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>9355848.4000000004</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3128965.55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>6126588.9000000004</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2611857.5499999998</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24483078.129999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>517108</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>18356489.23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>64</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>640.83000000000004</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>50</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180509_Open'!E10</f>
-        <v>256</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180509_Open'!B11</f>
-        <v>2958.8999999999996</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>487.46</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180509_Open'!B13</f>
-        <v>822.48</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2446740</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2259900</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-5709060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>-3262320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>1882559.74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>854784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>8527.1000000000931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>244.44</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>I21+'20180509_Open'!I21</f>
-        <v>375.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>1454.38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>551.46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13">
-        <v>240</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>194361</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="23">
-        <v>23.92</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="13">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>22928</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="23">
-        <v>23.46</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1695</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="23">
-        <v>23.35</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="13">
-        <v>10</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-270</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="23">
-        <v>23.8</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>260</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2650487</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="22">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>11585</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>8780</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>2805</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId1"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId2"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId3"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId4"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId5"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId6"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId7"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId8"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId9"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId10"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId11"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId12"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId1"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId2"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId3"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId4"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId5"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId6"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId7"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId8"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId9"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId10"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId11"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId12"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -375,6 +376,121 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1410,7 +1526,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2811,8 +2927,828 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180523_Open'!E10</f>
+        <v>2739.2000000000003</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180523_Open'!B11</f>
+        <v>8710.93</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180523_Open'!B13</f>
+        <v>5250.2699999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6859700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>7989.4699999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-2003949</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.05</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>522976</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.93</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19054</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2848</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2706943</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>22449</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-9760</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32209</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-27</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2853,11 +3789,15 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>2475619.2400000002</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>3188572.79</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2872,44 +3812,51 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>11735857.699999999</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>2462124.9900000002</v>
+      </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="9">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-12</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>0</v>
+        <v>24513720.870000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>726447.8</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>12777863.17</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
@@ -2917,9 +3864,7 @@
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9">
-        <v>5</v>
-      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2931,14 +3876,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>5089896.1500000004</v>
+        <v>3089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
+      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,13 +3889,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>23491673.370000001</v>
+        <v>25491673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>460.8</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2962,12 +3905,14 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>2243.9299999999998</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>542</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2975,13 +3920,15 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>10300000</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180522_Open'!E10</f>
-        <v>2739.2000000000003</v>
+        <f>E8+'20180510_Open'!E10</f>
+        <v>288</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -2989,7 +3936,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,8 +3944,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180522_Open'!B11</f>
-        <v>8620.91</v>
+        <f>B9+'20180510_Open'!B11</f>
+        <v>5202.83</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3008,14 +3955,16 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>519.99</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -3027,29 +3976,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180522_Open'!B13</f>
-        <v>4963.3399999999992</v>
+        <f>B12+'20180510_Open'!B13</f>
+        <v>1342.47</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>820260</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6569700</v>
+        <v>4309900</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>-9843120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3063,7 +4014,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>0</v>
+        <v>-9022860</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3086,14 +4037,18 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="24">
+        <v>1261441.22</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>1473120</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -3103,7 +4058,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-2728816.6400000001</v>
+        <v>5744.5799999996088</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3118,7 +4073,9 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <v>659.42</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3145,7 +4102,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>0</v>
+        <v>659.42</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3154,12 +4111,14 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
+        <v>31310386.16</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>283.52</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -3167,7 +4126,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>13935425.5</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -3181,7 +4140,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>7702.5399999999991</v>
+        <v>2289.89</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3190,7 +4149,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>460.8</v>
+        <v>835.51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,18 +4202,20 @@
       <c r="A34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13">
+        <v>390</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-885371</v>
+        <v>-872440</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H34" s="23">
-        <v>20.82</v>
+        <v>22.51</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3275,18 +4236,20 @@
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="13">
+        <v>50</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>702470</v>
+        <v>-4848</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H35" s="23">
-        <v>16.98</v>
+        <v>22.06</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3307,18 +4270,20 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13">
+        <v>10</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20141</v>
+        <v>1482</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H36" s="23">
-        <v>17.25</v>
+        <v>21.95</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3339,18 +4304,20 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-4608</v>
+        <v>124</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H37" s="23">
-        <v>17.850000000000001</v>
+        <v>22.4</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3372,7 +4339,8 @@
         <v>43</v>
       </c>
       <c r="B38" s="13">
-        <v>2011</v>
+        <f>SUM(B34:B37)</f>
+        <v>460</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3415,13 +4383,13 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2684494</v>
+        <v>2649034</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3431,13 +4399,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>10639</v>
+        <v>-1453</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H41" s="22">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3456,21 +4424,19 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="17"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>11061</v>
+        <v>2813</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="22">
-        <v>0.03</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3489,38 +4455,31 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-421</v>
+        <v>-4266</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A44" s="5"/>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>54244</v>
+        <v>18784</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="A45" s="14"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -3529,108 +4488,55 @@
       <c r="E45" s="15">
         <v>2630250</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="14"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A47" s="14"/>
       <c r="B47" s="5"/>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="5"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-27</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-40</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-58</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-248</v>
-      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4419,7 +5325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5197,7 +6103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5924,8 +6830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5967,13 +6873,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>4691709.63</v>
+        <v>2642280.39</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>3960391.38</v>
+        <v>4678318.4000000004</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -5990,19 +6896,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>17017099.199999999</v>
+        <v>17849874.899999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
-        <v>779422.03</v>
+        <v>1408668</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -6012,13 +6918,13 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>22708894.989999998</v>
+        <v>21592244.899999999</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>3180969.35</v>
+        <v>3269650</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
@@ -6033,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>5691795.79</v>
+        <v>3742370</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -6043,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -6062,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -6077,7 +6983,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>177.6</v>
+        <v>460.8</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6088,13 +6994,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>86.16</v>
+        <v>90.02</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>217</v>
+        <v>542</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -6103,14 +7009,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>1000000</v>
+        <v>11000000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180521_Open'!E10</f>
-        <v>2278.4</v>
+        <f>E8+'20180522_Open'!E10</f>
+        <v>2739.2000000000003</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -6118,7 +7024,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6126,8 +7032,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180521_Open'!B11</f>
-        <v>8620.91</v>
+        <f>B9+'20180522_Open'!B11</f>
+        <v>8710.93</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -6145,7 +7051,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>239.53</v>
+        <v>286.93</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -6158,8 +7064,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180521_Open'!B13</f>
-        <v>4963.3399999999992</v>
+        <f>B12+'20180522_Open'!B13</f>
+        <v>5250.2699999999995</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -6167,7 +7073,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="11">
-        <v>10627800</v>
+        <v>11361060</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6175,7 +7081,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6219700</v>
+        <v>6569700</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -6196,7 +7102,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>10627800</v>
+        <v>11361060</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6219,8 +7125,8 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>1060413.19</v>
+      <c r="I17" s="11">
+        <v>858559.41</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6229,7 +7135,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11">
-        <v>1594170</v>
+        <v>1701891</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -6240,7 +7146,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-74233.450000000186</v>
+        <v>-168366.22999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6256,7 +7162,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="11">
-        <v>3835.22</v>
+        <v>3929</v>
       </c>
       <c r="N21" s="5"/>
     </row>
@@ -6284,7 +7190,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>3835.22</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6299,7 +7205,7 @@
         <v>45</v>
       </c>
       <c r="I25" s="5">
-        <v>113.46</v>
+        <v>93.78</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6308,7 +7214,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>21792238.550000001</v>
+        <v>22821415.899999999</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -6322,7 +7228,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>11076.96</v>
+        <v>11918.47</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6331,7 +7237,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>530.59</v>
+        <v>841.51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -6384,18 +7290,20 @@
       <c r="A34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13">
+        <v>255</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-139817</v>
+        <v>-885371</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="23">
-        <v>18.760000000000002</v>
+        <v>20.82</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -6416,18 +7324,20 @@
       <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="13">
+        <v>1261</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>539616</v>
+        <v>702470</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="23">
-        <v>17.010000000000002</v>
+        <v>16.98</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -6448,18 +7358,20 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13">
+        <v>345</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>15314</v>
+        <v>20141</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.489999999999998</v>
+        <v>17.25</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -6480,18 +7392,20 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13">
+        <v>452</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3331</v>
+        <v>-4608</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.87</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -6513,7 +7427,8 @@
         <v>43</v>
       </c>
       <c r="B38" s="13">
-        <v>2011</v>
+        <f>SUM(B34:B37)</f>
+        <v>2313</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6538,7 +7453,9 @@
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="13">
+        <v>1272</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
@@ -6551,12 +7468,14 @@
       <c r="A40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="13">
+        <v>1041</v>
+      </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2673855</v>
+        <v>2684494</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>75</v>
@@ -6572,13 +7491,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-29975</v>
+        <v>10639</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -6605,7 +7524,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>4997</v>
+        <v>11061</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
@@ -6637,13 +7556,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-34973</v>
+        <v>-421</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -6655,7 +7574,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>43605</v>
+        <v>54244</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -6699,7 +7618,7 @@
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H47" s="13">
         <v>0</v>
@@ -6716,13 +7635,13 @@
       <c r="B48" s="5"/>
       <c r="F48" s="13"/>
       <c r="G48" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H48" s="13">
         <v>-15</v>
       </c>
       <c r="I48" s="13">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="J48" s="13">
         <v>-38</v>
@@ -6739,7 +7658,7 @@
         <v>-17</v>
       </c>
       <c r="I49" s="13">
-        <v>-46</v>
+        <v>-40</v>
       </c>
       <c r="J49" s="13">
         <v>-165</v>
@@ -6754,10 +7673,10 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="I50" s="13">
-        <v>-62</v>
+        <v>-58</v>
       </c>
       <c r="J50" s="13">
         <v>-248</v>
@@ -6772,6 +7691,857 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4691709.63</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3960391.38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17017099.199999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>779422.03</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>22708894.989999998</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3180969.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5691795.79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>177.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>86.16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>217</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180521_Open'!E10</f>
+        <v>2278.4</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180521_Open'!B11</f>
+        <v>8620.91</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>239.53</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180521_Open'!B13</f>
+        <v>4963.3399999999992</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6219700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1060413.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1594170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-74233.450000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3835.22</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3835.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>113.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>21792238.550000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>11076.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>530.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-139817</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>539616</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>15314</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3331</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.87</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2011</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2673855</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-29975</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4997</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-34973</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-24</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-46</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-62</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7606,7 +9376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8445,7 +10215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9284,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10115,7 +11885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10940,7 +12710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11724,797 +13494,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2475619.2400000002</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3188572.79</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>11735857.699999999</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2462124.9900000002</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24513720.870000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>726447.8</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12777863.17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2243.9299999999998</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>60</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>10300000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180510_Open'!E10</f>
-        <v>288</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180510_Open'!B11</f>
-        <v>5202.83</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>519.99</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180510_Open'!B13</f>
-        <v>1342.47</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>820260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4309900</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-9843120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>-9022860</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>1261441.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>1473120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>5744.5799999996088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>659.42</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>659.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>283.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>13935425.5</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>2289.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>835.51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13">
-        <v>390</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-872440</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="23">
-        <v>22.51</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13">
-        <v>50</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>-4848</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="23">
-        <v>22.06</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1482</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="23">
-        <v>21.95</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>10</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>124</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="23">
-        <v>22.4</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>460</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2649034</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>-1453</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2813</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-4266</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId1"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId2"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId3"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId4"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId5"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId6"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId7"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId8"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId9"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId10"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId11"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId12"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId13"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId1"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId2"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId3"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId4"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId5"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId6"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId7"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId8"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId9"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId10"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId11"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId12"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId13"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -491,6 +492,121 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1526,7 +1642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2927,7 +3043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2995,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -3015,7 +3133,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -3090,8 +3208,8 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180523_Open'!E10</f>
-        <v>2739.2000000000003</v>
+        <f>E8+'20180524_Open'!E10</f>
+        <v>3233.6000000000004</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3099,7 +3217,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3107,8 +3225,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180523_Open'!B11</f>
-        <v>8710.93</v>
+        <f>B9+'20180524_Open'!B11</f>
+        <v>8745.0400000000009</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3137,8 +3255,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180523_Open'!B13</f>
-        <v>5250.2699999999995</v>
+        <f>B12+'20180524_Open'!B13</f>
+        <v>5492.49</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3152,7 +3270,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6859700</v>
+        <v>7071461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -3269,9 +3387,7 @@
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5">
-        <v>93.78</v>
-      </c>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -3293,7 +3409,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>7989.4699999999993</v>
+        <v>8726.09</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3302,7 +3418,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>93.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3353,20 +3469,20 @@
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B34" s="13"/>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-2003949</v>
+        <v>524747</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>22.05</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3385,20 +3501,20 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>522976</v>
+        <v>551467</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.93</v>
+        <v>17.27</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3424,13 +3540,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>19054</v>
+        <v>19037</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.809999999999999</v>
+        <v>17.38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3456,13 +3572,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-2848</v>
+        <v>-2889</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.5</v>
+        <v>17.77</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3528,13 +3644,13 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2706943</v>
+        <v>2711286</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3544,13 +3660,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>22449</v>
+        <v>4343</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3577,13 +3693,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>-9760</v>
+        <v>-7441</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3609,13 +3725,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>32209</v>
+        <v>11784</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3627,7 +3743,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>76693</v>
+        <v>81036</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3691,13 +3807,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I48" s="13">
         <v>-27</v>
       </c>
       <c r="J48" s="13">
-        <v>-38</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3708,13 +3824,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I49" s="13">
         <v>-40</v>
       </c>
       <c r="J49" s="13">
-        <v>-165</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,13 +3842,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="I50" s="13">
-        <v>-58</v>
+        <v>-49</v>
       </c>
       <c r="J50" s="13">
-        <v>-248</v>
+        <v>-191</v>
       </c>
     </row>
   </sheetData>
@@ -3744,6 +3860,792 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5942719.8799999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3182466.79</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12521031.6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2450342.69</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24464183.27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>732124.1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11943151.67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>431.79</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180511_Open'!E10</f>
+        <v>304</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180511_Open'!B11</f>
+        <v>5634.62</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>698.29</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180511_Open'!B13</f>
+        <v>2040.76</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5730060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4309900</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-13915860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>-8185800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>665979.82999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2088909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>26072.189999999944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1056.81</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1056.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>15342064.699999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>3401.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1111.6799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>674288</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.83</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>26845</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23">
+        <v>21.17</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="23">
+        <v>21.46</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-81</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="23">
+        <v>21.74</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2649297</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1396</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>6297</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-4902</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="22">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4536,7 +5438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5325,7 +6227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6103,7 +7005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6830,6 +7732,868 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1648549.83</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4523867.5199999996</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18329118.399999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1490533.37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20377702.34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2814572.55</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2048583.94</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>494.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>34.11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>475</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180523_Open'!E10</f>
+        <v>3233.6000000000004</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180523_Open'!B11</f>
+        <v>8745.0400000000009</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>242.22</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180523_Open'!B13</f>
+        <v>5492.49</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>11161320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6859700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11161320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>733462.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1680543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-314811.41000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>22824233.949999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>8726.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>830.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1376</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-2003949</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.05</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>522976</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.93</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>345</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19054</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>488</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2848</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2209</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1302</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>907</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2706943</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>22449</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-9760</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32209</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-27</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -7690,12 +9454,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8541,12 +10305,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9376,12 +11140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10215,7 +11979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11054,7 +12818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11885,7 +13649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12708,790 +14472,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5942719.8799999999</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3182466.79</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>12521031.6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2450342.69</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24464183.27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>732124.1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>11943151.67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>431.79</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180511_Open'!E10</f>
-        <v>304</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180511_Open'!B11</f>
-        <v>5634.62</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>698.29</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180511_Open'!B13</f>
-        <v>2040.76</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5730060</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4309900</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-13915860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>-8185800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>665979.82999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2088909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>26072.189999999944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1056.81</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>1056.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>397.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>15342064.699999999</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>3401.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1111.6799999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>674288</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="23">
-        <v>22.83</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>26845</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="23">
-        <v>21.17</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>2023</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="23">
-        <v>21.46</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-81</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="23">
-        <v>21.74</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2649297</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="22">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1396</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>6297</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-4902</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="22">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId1"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId2"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId3"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId4"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId5"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId6"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId7"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId8"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId9"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId10"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId11"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId12"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId13"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId14"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId1"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId2"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId3"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId4"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId5"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId6"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId7"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId8"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId9"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId10"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId11"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId12"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId13"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId14"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -607,6 +608,121 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1642,7 +1758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3043,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3133,7 +3249,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -3150,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -3168,17 +3284,17 @@
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>23491673.370000001</v>
+        <v>23191673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -3192,7 +3308,9 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3203,13 +3321,15 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180524_Open'!E10</f>
-        <v>3233.6000000000004</v>
+        <f>E8+'20180525_Open'!E10</f>
+        <v>3289.6000000000004</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3217,7 +3337,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3225,7 +3345,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180524_Open'!B11</f>
+        <f>B9+'20180525_Open'!B11</f>
         <v>8745.0400000000009</v>
       </c>
       <c r="D11" s="6"/>
@@ -3236,7 +3356,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3255,8 +3375,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180524_Open'!B13</f>
-        <v>5492.49</v>
+        <f>B12+'20180525_Open'!B13</f>
+        <v>5712.61</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3270,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>7071461</v>
+        <v>6951461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -3304,7 +3424,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>2728816.6400000001</v>
+        <v>3028816.64</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3331,7 +3451,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-2728816.6400000001</v>
+        <v>-3028816.64</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3409,7 +3529,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>8726.09</v>
+        <v>9002.2099999999991</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3471,18 +3591,20 @@
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13">
+        <v>1431</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>524747</v>
+        <v>-22759</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>17.510000000000002</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3503,18 +3625,20 @@
       <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="13">
+        <v>15</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>551467</v>
+        <v>574656</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.27</v>
+        <v>17.57</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3535,18 +3659,20 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>19037</v>
+        <v>19232</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.38</v>
+        <v>17.48</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3567,18 +3693,20 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13">
+        <v>463</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-2889</v>
+        <v>-3132</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.77</v>
+        <v>17.88</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3601,7 +3729,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>0</v>
+        <v>2244</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3626,7 +3754,9 @@
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13">
+        <v>1327</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
@@ -3639,18 +3769,20 @@
       <c r="A40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13">
+        <v>917</v>
+      </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2711286</v>
+        <v>2722694</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3660,13 +3792,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>4343</v>
+        <v>10407</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3693,13 +3825,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>-7441</v>
+        <v>6811</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3725,13 +3857,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>11784</v>
+        <v>3596</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3743,7 +3875,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>81036</v>
+        <v>92444</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3807,13 +3939,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="I48" s="13">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="J48" s="13">
-        <v>-44</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3827,7 +3959,7 @@
         <v>-16</v>
       </c>
       <c r="I49" s="13">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="J49" s="13">
         <v>-113</v>
@@ -3842,13 +3974,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="I50" s="13">
-        <v>-49</v>
+        <v>-58</v>
       </c>
       <c r="J50" s="13">
-        <v>-191</v>
+        <v>-185</v>
       </c>
     </row>
   </sheetData>
@@ -3860,6 +3992,831 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8759261.0199999996</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3128965.55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6341224.5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2611857.5499999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24601273.050000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>517108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18260048.550000001</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>787.53</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180514_Open '!E10</f>
+        <v>336</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180514_Open '!B11</f>
+        <v>6422.15</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>790.65</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180514_Open '!B13</f>
+        <v>2831.41</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2310100</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>6858332.5</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>3167.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1220.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>390118</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.87</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>33201</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>19.53</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>2454</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.61</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-299</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <v>340</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2660707</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9779</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1110</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8669</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-92</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4645,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5438,7 +6395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6227,7 +7184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7005,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7732,8 +8689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7775,13 +8732,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1648549.83</v>
+        <v>1183240.19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>4523867.5199999996</v>
+        <v>5310266.45</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -7798,19 +8755,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>18329118.399999999</v>
+        <v>18774728.960000001</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
-        <v>1490533.37</v>
+        <v>2662328</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -7820,19 +8777,19 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>20377702.34</v>
+        <v>19957969.150000002</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>2814572.55</v>
+        <v>2647938.4500000002</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -7841,7 +8798,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>2048583.94</v>
+        <v>1183240.19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -7879,13 +8836,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>23491673.370000001</v>
+        <v>23191673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>494.4</v>
+        <v>56</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -7896,13 +8853,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>34.11</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>475</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -7911,14 +8868,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180523_Open'!E10</f>
-        <v>3233.6000000000004</v>
+        <f>E8+'20180524_Open'!E10</f>
+        <v>3289.6000000000004</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -7926,7 +8883,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7934,7 +8891,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180523_Open'!B11</f>
+        <f>B9+'20180524_Open'!B11</f>
         <v>8745.0400000000009</v>
       </c>
       <c r="D11" s="6"/>
@@ -7953,7 +8910,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>242.22</v>
+        <v>220.12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -7966,8 +8923,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180523_Open'!B13</f>
-        <v>5492.49</v>
+        <f>B12+'20180524_Open'!B13</f>
+        <v>5712.61</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -7975,7 +8932,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="11">
-        <v>11161320</v>
+        <v>13469400</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7983,7 +8940,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6859700</v>
+        <v>7071461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -8004,7 +8961,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>11161320</v>
+        <v>13469400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8017,7 +8974,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>2728816.6400000001</v>
+        <v>3028816.64</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -8028,7 +8985,7 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="11">
-        <v>733462.23</v>
+        <v>573438</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -8037,7 +8994,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11">
-        <v>1680543</v>
+        <v>2598015</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -8048,7 +9005,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-314811.41000000015</v>
+        <v>142636.35999999987</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -8063,7 +9020,9 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <v>4021.13</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -8090,7 +9049,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>0</v>
+        <v>4021.13</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8105,7 +9064,7 @@
         <v>45</v>
       </c>
       <c r="I25" s="5">
-        <v>93.78</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8114,7 +9073,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>22824233.949999999</v>
+        <v>24020682.41</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -8128,7 +9087,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>8726.09</v>
+        <v>13023.34</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8137,7 +9096,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>830.4</v>
+        <v>331.07</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -8191,19 +9150,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1376</v>
+        <v>1401</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-2003949</v>
+        <v>524747</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>22.05</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -8225,19 +9184,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>522976</v>
+        <v>551467</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.93</v>
+        <v>17.27</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -8259,19 +9218,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>19054</v>
+        <v>19037</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.809999999999999</v>
+        <v>17.38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -8293,19 +9252,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-2848</v>
+        <v>-2889</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.5</v>
+        <v>17.77</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -8328,7 +9287,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2209</v>
+        <v>2219</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -8354,7 +9313,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -8375,13 +9334,13 @@
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2706943</v>
+        <v>2711286</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8391,13 +9350,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>22449</v>
+        <v>4343</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -8424,13 +9383,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>-9760</v>
+        <v>-7441</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -8456,13 +9415,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>32209</v>
+        <v>11784</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -8474,7 +9433,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>76693</v>
+        <v>81036</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -8538,13 +9497,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I48" s="13">
         <v>-27</v>
       </c>
       <c r="J48" s="13">
-        <v>-38</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -8555,13 +9514,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I49" s="13">
         <v>-40</v>
       </c>
       <c r="J49" s="13">
-        <v>-165</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -8573,13 +9532,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="I50" s="13">
-        <v>-58</v>
+        <v>-49</v>
       </c>
       <c r="J50" s="13">
-        <v>-248</v>
+        <v>-191</v>
       </c>
     </row>
   </sheetData>
@@ -8591,6 +9550,868 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1648549.83</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4523867.5199999996</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18329118.399999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1490533.37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20377702.34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2814572.55</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2048583.94</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>494.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>34.11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>475</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180523_Open'!E10</f>
+        <v>3233.6000000000004</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180523_Open'!B11</f>
+        <v>8745.0400000000009</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>242.22</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180523_Open'!B13</f>
+        <v>5492.49</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>11161320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6859700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11161320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>733462.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1680543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-314811.41000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>22824233.949999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>8726.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>830.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1376</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-2003949</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.05</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>522976</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.93</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>345</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19054</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>488</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2848</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2209</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1302</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>907</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2706943</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>22449</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-9760</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32209</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-27</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9454,7 +11275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10305,7 +12126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11140,11 +12961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -11979,7 +13800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12818,7 +14639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13647,829 +15468,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8759261.0199999996</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3128965.55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>6341224.5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2611857.5499999998</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24601273.050000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>517108</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>18260048.550000001</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>787.53</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>20</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9500000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180514_Open '!E10</f>
-        <v>336</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180514_Open '!B11</f>
-        <v>6422.15</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>790.65</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180514_Open '!B13</f>
-        <v>2831.41</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2310100</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>397.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>6858332.5</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>3167.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1220.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>390118</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>20.87</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>33201</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>19.53</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>2454</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>19.61</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-299</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <v>340</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2660707</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>9779</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1110</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>8669</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-10</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-20</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-34</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-76</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-32</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-92</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,22 +12,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId1"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId2"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId3"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId4"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId5"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId6"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId7"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId8"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId9"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId10"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId11"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId12"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId13"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId14"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId15"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId1"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId2"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId3"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId4"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId5"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId6"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId7"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId8"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId9"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId10"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId11"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId12"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId13"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId14"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId15"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId16"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -723,6 +728,236 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1758,7 +1993,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2894,6 +3129,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20180529_Open"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3157,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -3249,7 +3497,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -3285,9 +3533,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="9">
-        <v>-2</v>
-      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3299,7 +3545,9 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>235.2</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -3327,9 +3575,9 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5">
-        <f>E8+'20180525_Open'!E10</f>
-        <v>3289.6000000000004</v>
+      <c r="E10" s="5" t="e">
+        <f>E8+'[1]20180529_Open'!E10</f>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3345,8 +3593,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180525_Open'!B11</f>
-        <v>8745.0400000000009</v>
+        <f>B9+'20180528_Open'!B11</f>
+        <v>8775.27</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3356,7 +3604,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,9 +3622,9 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <f>B12+'20180525_Open'!B13</f>
-        <v>5712.61</v>
+      <c r="B13" s="5" t="e">
+        <f>B12+'[1]20180529_Open'!B13</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3390,15 +3638,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>6951461</v>
+        <v>7581461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3527,9 +3773,9 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="5" t="e">
         <f>$B$13+$E$10+$I$24</f>
-        <v>9002.2099999999991</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3538,7 +3784,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>235.2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3592,19 +3838,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1431</v>
+        <v>1551</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-22759</v>
+        <v>-618575</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>17.899999999999999</v>
+        <v>17.71</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3626,19 +3872,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>574656</v>
+        <v>673270</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.57</v>
+        <v>17.38</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3666,13 +3912,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>19232</v>
+        <v>20895</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.48</v>
+        <v>17.29</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3694,19 +3940,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3132</v>
+        <v>-3751</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.88</v>
+        <v>17.38</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3729,7 +3975,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2244</v>
+        <v>2519</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3755,7 +4001,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1327</v>
+        <v>1507</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -3770,19 +4016,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>917</v>
+        <v>-1012</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2722694</v>
+        <v>2718991</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3792,13 +4038,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>10407</v>
+        <v>-804</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3825,13 +4071,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>6811</v>
+        <v>10546</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3857,13 +4103,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>3596</v>
+        <v>-11350</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.5E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3875,7 +4121,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>92444</v>
+        <v>88741</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -3942,10 +4188,10 @@
         <v>-17</v>
       </c>
       <c r="I48" s="13">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="J48" s="13">
-        <v>-39</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3956,13 +4202,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="I49" s="13">
-        <v>-50</v>
+        <v>-43</v>
       </c>
       <c r="J49" s="13">
-        <v>-113</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3974,14 +4220,17 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="I50" s="13">
         <v>-58</v>
       </c>
       <c r="J50" s="13">
-        <v>-185</v>
-      </c>
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -3992,6 +4241,1676 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5137278.3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4605072.9000000004</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>11334220.5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2407920.2999999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22472034.57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2197152.6</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11137814.07</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>574.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>535.77</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>612</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180516_Open'!E10</f>
+        <v>1465.6</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180516_Open'!B11</f>
+        <v>7753.33</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>497.92</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180516_Open'!B13</f>
+        <v>3672.6</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>8914800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4190100</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1625580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>7289220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1297270.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1339929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-91617.450000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1949.45</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1949.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>244.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>14871302.1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>7087.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1317.1699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200470</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.61</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>446611</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>19.66</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>10679</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3245</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>20.02</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2709896</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>44916</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>21413</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>23503</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-8</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-77</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7599095.2800000003</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2740652.5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8001074</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1199722.2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>24600964.690000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1540930.3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16599890.689999999</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>25491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>795.41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>617</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180515_Open'!E10</f>
+        <v>891.2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180515_Open'!B11</f>
+        <v>7217.5599999999995</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>343.27</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180515_Open'!B13</f>
+        <v>3174.68</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3291720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2920100</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>3291720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>2185932.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>492723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-50161.600000000093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1704.6</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>1704.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>397.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>10034727.300000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>5770.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1295.8600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-224561</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>203749</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>7750</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-1556</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.78</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2664980</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4273</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4945</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-672</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-20</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-32</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-92</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -4816,7 +6735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5602,7 +7521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6395,7 +8314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7184,7 +9103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7962,7 +9881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8687,9 +10606,1741 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1464026.28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4573079.33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>19186817.949999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1845105.58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20650844.23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2727973.75</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1464026.28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23191673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>76.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>73</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180528_Open'!E10</f>
+        <v>3422.4000000000005</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180528_Open'!B11</f>
+        <v>8775.27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>143.79</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180528_Open'!B13</f>
+        <v>5856.4</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15135180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7191461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-795600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>14339580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>3028816.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>401519.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2268306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-358990.67000000039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4333.4399999999996</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4333.4399999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>128.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>24183097.699999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>13612.239999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>349.54999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1471</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>518782</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>41</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>622447</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>16.95</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20223</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.07</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>470</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.37</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2317</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1375</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-942</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2719795</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-2900</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1108</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-4007</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-47</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-61</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1500779.84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4878426.43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18449177.489999998</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2269841.08</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20349987.559999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2608585.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1900810.07</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23191673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>30.23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180525_Open'!E10</f>
+        <v>3345.6000000000004</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180525_Open'!B11</f>
+        <v>8775.27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180525_Open'!B13</f>
+        <v>5712.61</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15029820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6951461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1581360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>13448460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>3028816.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>325290.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2252781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-450744.70999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4204.4799999999996</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4204.4799999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>183.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>23310543.84</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>13262.689999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>239.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1431</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-22759</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>574656</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.57</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19232</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.48</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>463</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3132</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.88</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2244</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1327</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>917</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2722694</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10407</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>6811</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3596</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-50</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E37"/>
     </sheetView>
   </sheetViews>
@@ -9549,7 +13200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10411,7 +14062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11275,7 +14926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12126,7 +15777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12961,7 +16612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13798,1674 +17449,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5137278.3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4605072.9000000004</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>11334220.5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2407920.2999999998</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>22472034.57</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2197152.6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>11137814.07</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>574.4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>535.77</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>612</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180516_Open'!E10</f>
-        <v>1465.6</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180516_Open'!B11</f>
-        <v>7753.33</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>497.92</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180516_Open'!B13</f>
-        <v>3672.6</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>8914800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4190100</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-1625580</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>7289220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>1297270.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>1339929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-91617.450000000186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1949.45</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>1949.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>244.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>14871302.1</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>7087.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1317.1699999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>200470</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>19.61</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>446611</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>19.66</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>10679</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>19.739999999999998</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3245</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>20.02</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2709896</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>44916</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>21413</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>23503</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-8</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-21</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-32</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-77</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-32</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-99</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>7599095.2800000003</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2740652.5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>8001074</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1199722.2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>24600964.690000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1540930.3</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>16599890.689999999</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>555.20000000000005</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>795.41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>617</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9500000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180515_Open'!E10</f>
-        <v>891.2</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180515_Open'!B11</f>
-        <v>7217.5599999999995</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>343.27</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180515_Open'!B13</f>
-        <v>3174.68</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3291720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2920100</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>3291720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>2185932.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>492723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-50161.600000000093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1704.6</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>1704.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.16</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>397.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>10034727.300000001</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>5770.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1295.8600000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-224561</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>203749</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>7750</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-1556</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>18.78</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2664980</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>4273</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>4945</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-672</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-10</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-20</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-34</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-76</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-32</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-92</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,27 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId1"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId2"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId3"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId4"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId5"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId6"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId7"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId8"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId9"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId10"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId11"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId12"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId13"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId14"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId15"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId16"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId17"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId1"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId2"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId3"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId4"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId5"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId6"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId7"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId8"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId9"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId10"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId11"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId12"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId13"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId14"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId15"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId16"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId17"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1072,6 +1070,121 @@
 </comments>
 </file>
 
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1993,7 +2106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3129,19 +3242,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20180529_Open"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3407,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -3492,12 +3592,14 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>2887729.2</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -3514,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -3540,13 +3642,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>23191673.370000001</v>
+        <v>22991673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>235.2</v>
+        <v>755.2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3556,9 +3658,7 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3569,15 +3669,13 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="e">
-        <f>E8+'[1]20180529_Open'!E10</f>
-        <v>#REF!</v>
+      <c r="E10" s="5">
+        <f>E8+'20180529_Open '!E10</f>
+        <v>4177.6000000000004</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3585,7 +3683,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,8 +3691,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180528_Open'!B11</f>
-        <v>8775.27</v>
+        <f>B9+'20180530_Open'!B11</f>
+        <v>8797.08</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3622,9 +3720,9 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="e">
-        <f>B12+'[1]20180529_Open'!B13</f>
-        <v>#REF!</v>
+      <c r="B13" s="5">
+        <f>B12+'20180530_Open'!B13</f>
+        <v>6094.1799999999994</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3638,13 +3736,15 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>7581461</v>
+        <v>9425561</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3670,7 +3770,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>3028816.64</v>
+        <v>3228816.64</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3697,7 +3797,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-3028816.64</v>
+        <v>-3228816.64</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3761,7 +3861,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>2887729.2</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -3773,9 +3873,9 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="e">
+      <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>#REF!</v>
+        <v>10271.779999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3784,7 +3884,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>235.2</v>
+        <v>755.2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3838,19 +3938,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1551</v>
+        <v>1593</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-618575</v>
+        <v>489719</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>17.71</v>
+        <v>21.33</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3872,19 +3972,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>673270</v>
+        <v>435290</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.38</v>
+        <v>20.34</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3906,19 +4006,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>335</v>
+        <v>546</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20895</v>
+        <v>15990</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.29</v>
+        <v>19.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3940,19 +4040,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3751</v>
+        <v>-3291</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.38</v>
+        <v>19.34</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3975,7 +4075,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2519</v>
+        <v>2907</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4001,7 +4101,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1507</v>
+        <v>1642</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -4016,19 +4116,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-1012</v>
+        <v>-1265</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2718991</v>
+        <v>2779017</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4038,7 +4138,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-804</v>
+        <v>60026</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
@@ -4071,13 +4171,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>10546</v>
+        <v>2035</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4103,13 +4203,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-11350</v>
+        <v>57992</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4121,7 +4221,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>88741</v>
+        <v>148767</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4185,13 +4285,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="I48" s="13">
         <v>-26</v>
       </c>
       <c r="J48" s="13">
-        <v>-45</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4202,10 +4302,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="I49" s="13">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="J49" s="13">
         <v>-108</v>
@@ -4223,10 +4323,10 @@
         <v>-8</v>
       </c>
       <c r="I50" s="13">
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="J50" s="13">
-        <v>-189</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4241,6 +4341,845 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5164891.24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4071009.75</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13729227.300000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1578662.4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22394899.359999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2492347.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8665672.6600000001</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>454.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>781.42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>439</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180517_Open'!E10</f>
+        <v>1920</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180517_Open'!B11</f>
+        <v>8534.75</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>566.98</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180517_Open'!B13</f>
+        <v>4239.58</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>12091980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5105700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-806160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11285820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>755108.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1815741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-157966.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3279.75</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3279.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1330.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>18037315.649999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>9439.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2351.6799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>605145</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.38</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>621968</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.63</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>13002</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.91</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4304</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.39</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2724403</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>14507</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>20666</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-6159</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5079,7 +6018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5910,7 +6849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6735,7 +7674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7521,7 +8460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8314,7 +9253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9103,7 +10042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9881,7 +10820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10608,8 +11547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10651,13 +11590,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1464026.28</v>
+        <v>28246</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>4573079.33</v>
+        <v>4499829.16</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -10674,19 +11613,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>19186817.949999999</v>
+        <v>20128778.960000001</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
-        <v>1845105.58</v>
+        <v>1612099.96</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -10696,19 +11635,19 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>20650844.23</v>
+        <v>20357046.91</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>2727973.75</v>
+        <v>2887729.2</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -10717,7 +11656,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>1464026.28</v>
+        <v>228267.95</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -10746,22 +11685,20 @@
         <v>74</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>23191673.370000001</v>
+        <v>22991673.370000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>76.8</v>
+        <v>235.2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -10772,13 +11709,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>21.81</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -10787,14 +11724,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180528_Open'!E10</f>
-        <v>3422.4000000000005</v>
+        <f>E8+'20180529_Open '!E10</f>
+        <v>3657.6000000000004</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -10810,8 +11747,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180528_Open'!B11</f>
-        <v>8775.27</v>
+        <f>B9+'20180529_Open '!B11</f>
+        <v>8797.08</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -10821,7 +11758,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10829,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>143.79</v>
+        <v>237.78</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -10842,8 +11779,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180528_Open'!B13</f>
-        <v>5856.4</v>
+        <f>B12+'20180529_Open '!B13</f>
+        <v>6094.1799999999994</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -10851,7 +11788,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="11">
-        <v>15135180</v>
+        <v>15016500</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10859,14 +11796,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>7191461</v>
+        <v>7581461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="11">
-        <v>-795600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10880,7 +11817,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>14339580</v>
+        <v>15016500</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10893,7 +11830,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>3028816.64</v>
+        <v>3228816.64</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -10904,7 +11841,7 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="11">
-        <v>401519.97</v>
+        <v>540828.96</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -10913,7 +11850,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11">
-        <v>2268306</v>
+        <v>2254905</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -10924,7 +11861,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-358990.67000000039</v>
+        <v>-433082.68000000017</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -10940,7 +11877,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="11">
-        <v>4333.4399999999996</v>
+        <v>4424.45</v>
       </c>
       <c r="N21" s="5"/>
     </row>
@@ -10968,7 +11905,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>4333.4399999999996</v>
+        <v>4424.45</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -10983,7 +11920,7 @@
         <v>45</v>
       </c>
       <c r="I25" s="5">
-        <v>128.96</v>
+        <v>91.01</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -10992,7 +11929,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>24183097.699999999</v>
+        <v>25271413.16</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -11006,7 +11943,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>13612.239999999998</v>
+        <v>14176.23</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -11015,7 +11952,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>349.54999999999995</v>
+        <v>563.99</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -11069,19 +12006,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1471</v>
+        <v>1551</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>518782</v>
+        <v>-618575</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>17.170000000000002</v>
+        <v>17.71</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -11103,19 +12040,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>622447</v>
+        <v>673270</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>16.95</v>
+        <v>17.38</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -11143,13 +12080,13 @@
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20223</v>
+        <v>20895</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.07</v>
+        <v>17.29</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -11171,19 +12108,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3276</v>
+        <v>-3751</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.37</v>
+        <v>17.38</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -11206,7 +12143,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2317</v>
+        <v>2519</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -11232,7 +12169,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1375</v>
+        <v>1507</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -11247,19 +12184,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-942</v>
+        <v>-1012</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2719795</v>
+        <v>2718991</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11269,13 +12206,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-2900</v>
+        <v>-804</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -11302,13 +12239,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>1108</v>
+        <v>10546</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -11334,13 +12271,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-4007</v>
+        <v>-11350</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -11352,7 +12289,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>89545</v>
+        <v>88741</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -11416,13 +12353,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="I48" s="13">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="J48" s="13">
-        <v>-42</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -11436,10 +12373,10 @@
         <v>-15</v>
       </c>
       <c r="I49" s="13">
-        <v>-47</v>
+        <v>-43</v>
       </c>
       <c r="J49" s="13">
-        <v>-109</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -11451,13 +12388,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="I50" s="13">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="J50" s="13">
-        <v>-190</v>
+        <v>-189</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -11472,6 +12409,873 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1464026.28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4573079.33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>19186817.949999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1845105.58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20650844.23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2727973.75</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1464026.28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23191673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>76.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>73</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180528_Open'!E10</f>
+        <v>3422.4000000000005</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180528_Open'!B11</f>
+        <v>8775.27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>143.79</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180528_Open'!B13</f>
+        <v>5856.4</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15135180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7191461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-795600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>14339580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>3028816.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>401519.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2268306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-358990.67000000039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4333.4399999999996</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4333.4399999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>128.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>24183097.699999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>13612.239999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>349.54999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1471</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>518782</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>41</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>622447</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>16.95</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20223</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.07</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>470</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.37</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2317</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1375</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-942</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2719795</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-2900</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1108</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-4007</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-47</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-61</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -12336,7 +14140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13200,7 +15004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -14062,7 +15866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -14926,7 +16730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15777,7 +17581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16610,843 +18414,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5164891.24</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4071009.75</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>13729227.300000001</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1578662.4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9">
-        <v>4</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>22394899.359999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2492347.35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8665672.6600000001</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>454.4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>781.42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>439</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3500000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180517_Open'!E10</f>
-        <v>1920</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180517_Open'!B11</f>
-        <v>8534.75</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>566.98</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180517_Open'!B13</f>
-        <v>4239.58</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>12091980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>5105700</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-806160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>11285820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>755108.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>1815741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-157966.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>3279.75</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>3279.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1330.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>18037315.649999999</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>9439.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>2351.6799999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>605145</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>19.38</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>621968</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.63</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>13002</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.91</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-4304</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.39</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2724403</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>14507</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>20666</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-6159</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-10</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-21</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-31</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-76</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-31</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-99</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,24 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId1"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId2"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId3"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId4"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId5"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId6"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId7"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId8"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId9"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId10"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId11"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId12"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId13"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId14"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId15"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId16"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId17"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId18"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId1"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId2"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId3"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId4"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId5"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId6"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId7"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId8"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId9"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId10"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId11"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId12"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId13"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId14"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId15"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId16"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId17"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId18"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1185,6 +1186,121 @@
 </comments>
 </file>
 
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -2106,7 +2222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="85">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3507,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3577,9 +3693,11 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3592,9 +3710,7 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
-        <v>2887729.2</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
@@ -3616,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -3629,12 +3745,14 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>5089896.1500000004</v>
+        <v>10089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3642,13 +3760,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>22991673.370000001</v>
+        <v>115991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>755.2</v>
+        <v>555.20000000000005</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3674,8 +3792,8 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180529_Open '!E10</f>
-        <v>4177.6000000000004</v>
+        <f>E8+'20180531_Open'!E10</f>
+        <v>4968</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3691,8 +3809,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180530_Open'!B11</f>
-        <v>8797.08</v>
+        <f>B9+'20180531_Open'!B11</f>
+        <v>23241.64</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3702,7 +3820,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3721,8 +3839,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180530_Open'!B13</f>
-        <v>6094.1799999999994</v>
+        <f>B12+'20180531_Open'!B13</f>
+        <v>6326.8099999999995</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3736,7 +3854,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>9425561</v>
+        <v>13304161</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -3770,7 +3888,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>3228816.64</v>
+        <v>5228816.6399999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3797,7 +3915,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-3228816.64</v>
+        <v>-5228816.6399999997</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3848,7 +3966,7 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
@@ -3861,7 +3979,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>2887729.2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -3875,7 +3993,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>10271.779999999999</v>
+        <v>11294.81</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3884,7 +4002,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>755.2</v>
+        <v>555.20000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3938,13 +4056,13 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1593</v>
+        <v>1726</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>489719</v>
+        <v>-1961590</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
@@ -3972,13 +4090,13 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>296</v>
+        <v>613</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>435290</v>
+        <v>512768</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
@@ -4006,13 +4124,13 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>15990</v>
+        <v>20183</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
@@ -4040,13 +4158,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3291</v>
+        <v>-3163</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
@@ -4075,7 +4193,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2907</v>
+        <v>3433</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4101,7 +4219,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1642</v>
+        <v>1918</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -4116,13 +4234,13 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-1265</v>
+        <v>-1515</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2779017</v>
+        <v>2815161</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
@@ -4138,7 +4256,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>60026</v>
+        <v>36144</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
@@ -4171,13 +4289,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>2035</v>
+        <v>10792</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4203,13 +4321,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>57992</v>
+        <v>25352</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.6000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4221,7 +4339,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>148767</v>
+        <v>184911</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4285,13 +4403,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="I48" s="13">
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="J48" s="13">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4302,10 +4420,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="I49" s="13">
-        <v>-39</v>
+        <v>-45</v>
       </c>
       <c r="J49" s="13">
         <v>-108</v>
@@ -4315,19 +4433,23 @@
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="13"/>
       <c r="G50" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="I50" s="13">
-        <v>-50</v>
+        <v>-59</v>
       </c>
       <c r="J50" s="13">
-        <v>-186</v>
-      </c>
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E53" s="15"/>
@@ -4341,6 +4463,841 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4485199.1500000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4015210.25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18200960.100000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1069128.95</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>22686159.25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2946081.3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4485199.1500000004</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>180.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>166</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180518_Open'!E10</f>
+        <v>2100.8000000000002</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180518_Open'!B11</f>
+        <v>8534.75</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>484.23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180518_Open'!B13</f>
+        <v>4723.8099999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6552540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6659700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-820560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>5731980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1676376.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>979290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-73149.990000000224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3721.76</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3721.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>442.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>22126331.400000002</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>10546.369999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1107.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1828652</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.15</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>501098</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.7</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>14619</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.28</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3717</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.39</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2703862</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-20541</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-7368</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-13173</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>73612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-21</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-76</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-31</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5179,7 +6136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6018,7 +6975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6849,7 +7806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7674,7 +8631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8460,7 +9417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9253,7 +10210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10042,7 +10999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10820,7 +11777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11548,7 +12505,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11590,13 +12547,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>28246</v>
+        <v>8401180.9600000009</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>4499829.16</v>
+        <v>9527472.5899999999</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -11613,19 +12570,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>20128778.960000001</v>
+        <v>24515884.16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
-        <v>1612099.96</v>
+        <v>6071355.8399999999</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -11635,7 +12592,7 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>20357046.91</v>
+        <v>112931509.67999999</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -11647,7 +12604,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -11656,7 +12613,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>228267.95</v>
+        <v>88415625.519999996</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -11666,7 +12623,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -11679,7 +12636,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>5089896.1500000004</v>
+        <v>10089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
@@ -11692,13 +12649,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>22991673.370000001</v>
+        <v>115991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>235.2</v>
+        <v>755.2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -11709,13 +12666,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>21.81</v>
+        <v>14444.56</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>222</v>
+        <v>912</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -11724,14 +12681,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>200000</v>
+        <v>80000000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180529_Open '!E10</f>
-        <v>3657.6000000000004</v>
+        <f>E8+'20180530_Open'!E10</f>
+        <v>4412.8</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -11739,7 +12696,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11747,8 +12704,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180529_Open '!B11</f>
-        <v>8797.08</v>
+        <f>B9+'20180530_Open'!B11</f>
+        <v>23241.64</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -11766,7 +12723,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>237.78</v>
+        <v>232.63</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -11779,8 +12736,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180529_Open '!B13</f>
-        <v>6094.1799999999994</v>
+        <f>B12+'20180530_Open'!B13</f>
+        <v>6326.8099999999995</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -11788,7 +12745,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="11">
-        <v>15016500</v>
+        <v>15458520</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11796,7 +12753,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>7581461</v>
+        <v>9425561</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -11817,7 +12774,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>15016500</v>
+        <v>15458520</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11830,7 +12787,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>3228816.64</v>
+        <v>5228816.6399999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -11841,7 +12798,7 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="11">
-        <v>540828.96</v>
+        <v>2200226.9700000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -11850,7 +12807,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11">
-        <v>2254905</v>
+        <v>2330928</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -11861,7 +12818,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-433082.68000000017</v>
+        <v>-697661.66999999899</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -11877,7 +12834,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="11">
-        <v>4424.45</v>
+        <v>4514.4399999999996</v>
       </c>
       <c r="N21" s="5"/>
     </row>
@@ -11905,7 +12862,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>4424.45</v>
+        <v>4514.4399999999996</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -11914,13 +12871,13 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I25" s="5">
-        <v>91.01</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -11929,7 +12886,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>25271413.16</v>
+        <v>29734541.359999999</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -11943,7 +12900,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>14176.23</v>
+        <v>15254.05</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -11952,7 +12909,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>563.99</v>
+        <v>1077.82</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -12006,19 +12963,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1551</v>
+        <v>1593</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-618575</v>
+        <v>489719</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>17.71</v>
+        <v>21.33</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -12040,19 +12997,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>673270</v>
+        <v>435290</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>17.38</v>
+        <v>20.34</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -12074,19 +13031,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>335</v>
+        <v>546</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20895</v>
+        <v>15990</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.29</v>
+        <v>19.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -12108,19 +13065,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3751</v>
+        <v>-3291</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>17.38</v>
+        <v>19.34</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -12143,7 +13100,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>2519</v>
+        <v>2907</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -12169,7 +13126,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1507</v>
+        <v>1642</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -12184,19 +13141,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-1012</v>
+        <v>-1265</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2718991</v>
+        <v>2779017</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -12206,7 +13163,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-804</v>
+        <v>60026</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
@@ -12239,13 +13196,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>10546</v>
+        <v>2035</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -12271,13 +13228,13 @@
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-11350</v>
+        <v>57992</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -12289,7 +13246,7 @@
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>88741</v>
+        <v>148767</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -12353,13 +13310,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="I48" s="13">
         <v>-26</v>
       </c>
       <c r="J48" s="13">
-        <v>-45</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -12370,10 +13327,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="I49" s="13">
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="J49" s="13">
         <v>-108</v>
@@ -12391,11 +13348,14 @@
         <v>-8</v>
       </c>
       <c r="I50" s="13">
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="J50" s="13">
-        <v>-189</v>
-      </c>
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E53" s="15"/>
@@ -12409,6 +13369,871 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>28246</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4499829.16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20128778.960000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1612099.96</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20357046.91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2887729.2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>228267.95</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>22991673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>235.2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>21.81</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>222</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180529_Open '!E10</f>
+        <v>3657.6000000000004</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180529_Open '!B11</f>
+        <v>8797.08</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>237.78</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180529_Open '!B13</f>
+        <v>6094.1799999999994</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15016500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7581461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>15016500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>3228816.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>540828.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2254905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-433082.68000000017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4424.45</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4424.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>91.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>25271413.16</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>14176.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>563.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1551</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-618575</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>17.71</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>173</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>673270</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.38</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20895</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.29</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>460</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3751</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.38</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2519</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1507</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-1012</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2718991</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-804</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10546</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-11350</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>88741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-26</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-43</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-8</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -13275,7 +15100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -14140,7 +15965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15004,7 +16829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15866,7 +17691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16730,7 +18555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17579,839 +19404,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4485199.1500000004</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4015210.25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>18200960.100000001</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1069128.95</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>22686159.25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2946081.3</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4485199.1500000004</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>180.8</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>166</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180518_Open'!E10</f>
-        <v>2100.8000000000002</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180518_Open'!B11</f>
-        <v>8534.75</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>484.23</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180518_Open'!B13</f>
-        <v>4723.8099999999995</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>6552540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>6659700</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-820560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>5731980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>1676376.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>979290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-73149.990000000224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>3721.76</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>3721.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>442.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>22126331.400000002</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>10546.369999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1107.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1828652</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>21.15</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>501098</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>17.7</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>14619</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.28</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3717</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.39</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2703862</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>-20541</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>-7368</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-13173</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>73612</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-10</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-21</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-31</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-76</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-31</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-99</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,25 +12,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId1"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId2"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId3"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId4"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId5"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId6"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId7"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId8"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId9"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId10"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId11"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId12"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId13"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId14"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId15"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId16"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId17"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId18"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId19"/>
+    <sheet name="20180602_Open" sheetId="21" r:id="rId1"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId2"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId3"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId4"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId5"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId6"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId7"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId8"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId9"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId10"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId11"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId12"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId13"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId14"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId15"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId16"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId17"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId18"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId19"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1416,6 +1417,121 @@
 </comments>
 </file>
 
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -2222,7 +2338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="86">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2585,6 +2701,10 @@
   </si>
   <si>
     <t>7月</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上日期权持仓</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -3623,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3693,10 +3813,10 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3751,7 +3871,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -3765,9 +3885,7 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>555.20000000000005</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -3792,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180531_Open'!E10</f>
+        <f>E8+'20180601_Open'!E10</f>
         <v>4968</v>
       </c>
       <c r="G10" s="6"/>
@@ -3809,8 +3927,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180531_Open'!B11</f>
-        <v>23241.64</v>
+        <f>B9+'20180601_Open'!B11</f>
+        <v>55123.880000000005</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3820,7 +3938,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3839,8 +3957,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180531_Open'!B13</f>
-        <v>6326.8099999999995</v>
+        <f>B12+'20180601_Open'!B13</f>
+        <v>6480.32</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3854,15 +3972,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>13304161</v>
+        <v>13612361</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3966,7 +4082,7 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>131310386.16000001</v>
+        <v>131310972.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
@@ -3993,7 +4109,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>11294.81</v>
+        <v>11448.32</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4002,7 +4118,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>555.20000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4056,13 +4172,13 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>1726</v>
+        <v>1846</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
@@ -4090,13 +4206,13 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
@@ -4124,13 +4240,13 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>586</v>
+        <v>737</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20183</v>
+        <v>18527</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
@@ -4158,13 +4274,13 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
@@ -4193,7 +4309,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>3433</v>
+        <v>3759</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4219,7 +4335,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>1918</v>
+        <v>2044</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -4234,19 +4350,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-1515</v>
+        <v>-1715</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2815161</v>
+        <v>2870824</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,13 +4372,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>36144</v>
+        <v>55664</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4282,14 +4398,14 @@
     </row>
     <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="17"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>10792</v>
+        <v>47739</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
@@ -4315,38 +4431,46 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1726</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>25352</v>
+        <v>7925</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.8000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>613</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="13">
+        <v>586</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
         <v>70</v>
@@ -4362,7 +4486,9 @@
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="13">
+        <v>508</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="25" t="s">
@@ -4379,7 +4505,10 @@
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>3433</v>
+      </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="6" t="s">
@@ -4406,7 +4535,7 @@
         <v>-19</v>
       </c>
       <c r="I48" s="13">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="J48" s="13">
         <v>-41</v>
@@ -4420,7 +4549,7 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="I49" s="13">
         <v>-45</v>
@@ -4439,13 +4568,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="I50" s="13">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="J50" s="13">
-        <v>-187</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -4463,6 +4592,857 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4691709.63</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3960391.38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17017099.199999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>779422.03</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>22708894.989999998</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3180969.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5691795.79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>177.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>86.16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>217</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180521_Open'!E10</f>
+        <v>2278.4</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180521_Open'!B11</f>
+        <v>8620.91</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>239.53</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180521_Open'!B13</f>
+        <v>4963.3399999999992</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6219700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>10627800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24">
+        <v>1060413.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1594170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-74233.450000000186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3835.22</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3835.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>113.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>21792238.550000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>11076.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>530.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-139817</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>539616</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>15314</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3331</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.87</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2011</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2673855</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-29975</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4997</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-34973</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-24</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-46</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-62</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5297,7 +6277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6136,7 +7116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6975,7 +7955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7806,7 +8786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8631,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9417,7 +10397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10210,7 +11190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10999,7 +11979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11777,7 +12757,880 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10867877.439999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9603272.0500000007</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35269330.810000002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4692104.05</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>113469090.49000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4911168</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>78199759.680000007</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>31882.240000000002</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>687</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>67300000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180531_Open'!E10</f>
+        <v>4968</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180531_Open'!B11</f>
+        <v>55123.880000000005</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>153.51</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180531_Open'!B13</f>
+        <v>6480.32</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15736860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13304161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5548200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>10188660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2389444.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2359962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-479410.37000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4860.1400000000003</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4860.1400000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>42540460.810000002</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>16308.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1054.4100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1726</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1961590</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>613</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>512768</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>20.34</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>586</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20183</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>508</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3163</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.34</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>3433</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1918</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-1515</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2815161</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>36144</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10792</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>25352</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-31</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-45</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-59</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12500,7 +14353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -13368,7 +15221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -14233,7 +16086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -15100,12 +16953,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15965,7 +17818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16829,7 +18682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17691,7 +19544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18553,855 +20406,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4691709.63</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3960391.38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>17017099.199999999</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>779422.03</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>22708894.989999998</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3180969.35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5691795.79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>177.6</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>86.16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>217</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180521_Open'!E10</f>
-        <v>2278.4</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180521_Open'!B11</f>
-        <v>8620.91</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>239.53</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180521_Open'!B13</f>
-        <v>4963.3399999999992</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>10627800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>6219700</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>10627800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24">
-        <v>1060413.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>1594170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-74233.450000000186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>3835.22</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>3835.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>113.46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>21792238.550000001</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>11076.96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>530.59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-139817</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>539616</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>15314</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3331</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>17.87</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <v>2011</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2673855</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>-29975</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>4997</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-34973</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-24</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-46</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-19</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-62</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -3743,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3804,7 +3804,9 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>123</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
@@ -3825,7 +3827,7 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -4095,7 +4097,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">

--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,26 +12,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180602_Open" sheetId="21" r:id="rId1"/>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId2"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId3"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId4"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId5"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId6"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId7"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId8"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId9"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId10"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId11"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId12"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId13"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId14"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId15"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId16"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId17"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId18"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId19"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId20"/>
+    <sheet name="20180605_Open" sheetId="22" r:id="rId1"/>
+    <sheet name="20180604_Open" sheetId="21" r:id="rId2"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId3"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId4"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId5"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId6"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId7"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId8"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId9"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId10"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId11"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId12"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId13"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId14"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId15"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId16"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId17"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId18"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId19"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId20"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1532,6 +1533,121 @@
 </comments>
 </file>
 
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -2338,7 +2454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="86">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3367,7 +3483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3420,6 +3536,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3743,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3804,21 +3921,19 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
-        <v>123</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3827,7 +3942,7 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -3887,7 +4002,9 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>1001.6</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -3912,8 +4029,8 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180601_Open'!E10</f>
-        <v>4968</v>
+        <f>E8+'20180604_Open'!E10</f>
+        <v>6315.2000000000007</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -3921,7 +4038,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,8 +4046,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180601_Open'!B11</f>
-        <v>55123.880000000005</v>
+        <f>B9+'20180604_Open'!B11</f>
+        <v>64000.500000000007</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -3940,7 +4057,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3959,8 +4076,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180601_Open'!B13</f>
-        <v>6480.32</v>
+        <f>B12+'20180604_Open'!B13</f>
+        <v>6688.3499999999995</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -3974,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>13612361</v>
+        <v>12246461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -4084,7 +4201,7 @@
       </c>
       <c r="B25" s="5">
         <f>B8+E7+I16+B45</f>
-        <v>131310972.16000001</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
@@ -4097,7 +4214,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -4111,7 +4228,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>11448.32</v>
+        <v>13003.55</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4120,7 +4237,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>1001.6</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4173,20 +4290,18 @@
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13">
-        <v>1846</v>
-      </c>
+      <c r="B34" s="13"/>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-721746</v>
+        <v>-1162709</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>21.33</v>
+        <v>18.93</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4207,20 +4322,18 @@
       <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="13">
-        <v>643</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>471960</v>
+        <v>79485</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>20.34</v>
+        <v>18.87</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4241,20 +4354,18 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13">
-        <v>737</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>18527</v>
+        <v>21262</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>19.5</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4275,20 +4386,18 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13">
-        <v>533</v>
-      </c>
+      <c r="B37" s="13"/>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-2826</v>
+        <v>-4650</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>19.34</v>
+        <v>18.43</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4311,7 +4420,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>3759</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4336,9 +4445,7 @@
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="13">
-        <v>2044</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
@@ -4351,14 +4458,12 @@
       <c r="A40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="13">
-        <v>-1715</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2870824</v>
+        <v>2913997</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
@@ -4374,13 +4479,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>55664</v>
+        <v>43173</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>1.2E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4407,13 +4512,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>47739</v>
+        <v>-2874</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.5999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4435,44 +4540,38 @@
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="13">
-        <v>1726</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>7925</v>
+        <v>46047</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.5999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="13">
-        <v>613</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>240574</v>
+        <v>283747</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="13">
-        <v>586</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
         <v>70</v>
@@ -4488,9 +4587,7 @@
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="13">
-        <v>508</v>
-      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="25" t="s">
@@ -4509,7 +4606,7 @@
       </c>
       <c r="B47" s="13">
         <f>SUM(B43:B46)</f>
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
@@ -4540,7 +4637,7 @@
         <v>-30</v>
       </c>
       <c r="J48" s="13">
-        <v>-41</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4551,36 +4648,38 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="I49" s="13">
-        <v>-45</v>
+        <v>-47</v>
       </c>
       <c r="J49" s="13">
-        <v>-108</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="13"/>
       <c r="G50" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="I50" s="13">
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="J50" s="13">
-        <v>-183</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E53" s="15"/>
@@ -4594,6 +4693,870 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2642280.39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4678318.4000000004</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17849874.899999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1408668</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>21592244.899999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3269650</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3742370</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23491673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>460.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>90.02</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>542</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>11000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180522_Open'!E10</f>
+        <v>2739.2000000000003</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180522_Open'!B11</f>
+        <v>8710.93</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>286.93</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180522_Open'!B13</f>
+        <v>5250.2699999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>11361060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6569700</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11361060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>2728816.6400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>858559.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>1701891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-168366.22999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>3929</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>22821415.899999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>11918.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>841.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13">
+        <v>255</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-885371</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.82</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1261</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>702470</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23">
+        <v>16.98</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>345</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20141</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.25</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>452</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4608</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2313</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1272</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1041</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2684494</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10639</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>11061</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-421</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-27</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-40</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5444,7 +6407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6279,7 +7242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7118,7 +8081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7957,7 +8920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8788,7 +9751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9613,7 +10576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10399,7 +11362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11192,7 +12155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11981,7 +12944,887 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6893267.1799999997</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9410580.2200000007</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35977470.119999997</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3956205.07</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>113379613.91999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5454375.1500000004</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>77402143.799999997</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>345.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8876.6200000000008</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>471</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>70500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180601_Open'!E10</f>
+        <v>5313.6</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180601_Open'!B11</f>
+        <v>64000.500000000007</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>208.03</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180601_Open'!B13</f>
+        <v>6688.3499999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15638580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13612361</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-789480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>14849100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2329391.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2344257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-555167.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>5055.5600000000004</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>5055.5600000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>131310972.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>145.41999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>43776102.269999996</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>17057.510000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>699.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-721746</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>471960</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>20.34</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>18527</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2826</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.34</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2044</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-1715</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2870824</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>55664</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>47739</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1726</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>7925</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>613</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>240574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>586</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>508</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>3433</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-20</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-45</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-21</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-57</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12759,880 +14602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10867877.439999999</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9603272.0500000007</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>35269330.810000002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4692104.05</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>113469090.49000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4911168</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>78199759.680000007</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>115991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>555.20000000000005</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>31882.240000000002</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>687</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>67300000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180531_Open'!E10</f>
-        <v>4968</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180531_Open'!B11</f>
-        <v>55123.880000000005</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>153.51</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180531_Open'!B13</f>
-        <v>6480.32</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15736860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13304161</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-5548200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>10188660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2389444.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2359962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-479410.37000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>4860.1400000000003</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>4860.1400000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>345.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>42540460.810000002</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>16308.46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1054.4100000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1726</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1961590</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>21.33</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>613</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>512768</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>20.34</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>586</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>20183</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>508</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3163</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.34</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>3433</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1918</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-1515</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2815161</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>36144</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10792</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>25352</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>184911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-19</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-31</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-45</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-16</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-59</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -14360,6 +15330,879 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10867877.439999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9603272.0500000007</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35269330.810000002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4692104.05</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>113469090.49000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4911168</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>78199759.680000007</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>31882.240000000002</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>687</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>67300000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180531_Open'!E10</f>
+        <v>4968</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180531_Open'!B11</f>
+        <v>55123.880000000005</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>153.51</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180531_Open'!B13</f>
+        <v>6480.32</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15736860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13304161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5548200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>10188660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2389444.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2359962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-479410.37000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4860.1400000000003</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4860.1400000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>42540460.810000002</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>16308.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1054.4100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1726</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1961590</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>613</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>512768</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>20.34</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>586</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20183</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>508</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3163</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.34</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>3433</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1918</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-1515</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2815161</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>36144</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10792</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>25352</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-31</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-45</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-59</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -15223,7 +17066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -16088,7 +17931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -16955,7 +18798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -17820,7 +19663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18684,7 +20527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -19544,868 +21387,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2642280.39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4678318.4000000004</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>17849874.899999999</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1408668</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>21592244.899999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3269650</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3742370</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23491673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>460.8</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>90.02</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>542</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>11000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180522_Open'!E10</f>
-        <v>2739.2000000000003</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180522_Open'!B11</f>
-        <v>8710.93</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>286.93</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180522_Open'!B13</f>
-        <v>5250.2699999999995</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>11361060</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>6569700</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>11361060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>2728816.6400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>858559.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>1701891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-168366.22999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>3929</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>93.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>22821415.899999999</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>11918.47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>841.51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13">
-        <v>255</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-885371</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="23">
-        <v>20.82</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1261</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>702470</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="23">
-        <v>16.98</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>345</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>20141</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>17.25</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>452</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-4608</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>2313</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1272</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>1041</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2684494</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10639</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>11061</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-421</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-27</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-40</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-58</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,30 +12,34 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180607_Open " sheetId="24" r:id="rId1"/>
-    <sheet name="20180606_Open" sheetId="23" r:id="rId2"/>
-    <sheet name="20180605_Open" sheetId="22" r:id="rId3"/>
-    <sheet name="20180604_Open" sheetId="21" r:id="rId4"/>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId5"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId6"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId7"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId8"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId9"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId10"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId11"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId12"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId13"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId14"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId15"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId16"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId17"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId18"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId19"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId20"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId21"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId22"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId23"/>
+    <sheet name="20180608_Open" sheetId="25" r:id="rId1"/>
+    <sheet name="20180607_Open " sheetId="24" r:id="rId2"/>
+    <sheet name="20180606_Open" sheetId="23" r:id="rId3"/>
+    <sheet name="20180605_Open" sheetId="22" r:id="rId4"/>
+    <sheet name="20180604_Open" sheetId="21" r:id="rId5"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId6"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId7"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId8"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId9"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId10"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId11"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId12"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId13"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId14"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId15"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId16"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId17"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId18"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId19"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId20"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId21"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId22"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId23"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId24"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId25"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1880,6 +1884,121 @@
 </comments>
 </file>
 
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -2686,7 +2805,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="86">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3827,6 +3946,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20180607_Open"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4092,7 +4224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4151,7 +4285,9 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>53463671.93</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4163,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4172,7 +4308,7 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>0</v>
+        <v>53463671.93</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -4212,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>10089896.15</v>
+        <v>11089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
@@ -4227,12 +4363,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>115991673.37</v>
+        <v>114991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>496</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -4256,9 +4394,9 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5">
-        <f>E8+'20180606_Open'!E10</f>
-        <v>6534.4000000000005</v>
+      <c r="E10" s="5" t="e">
+        <f>E8+'[1]20180607_Open'!E10</f>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -4273,9 +4411,9 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
-        <f>B9+'20180606_Open'!B11</f>
-        <v>77568.62</v>
+      <c r="B11" s="5" t="e">
+        <f>B9+'[1]20180607_Open'!B11</f>
+        <v>#REF!</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -4285,14 +4423,16 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>1392.39</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -4303,9 +4443,9 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <f>B12+'20180606_Open'!B13</f>
-        <v>8375.09</v>
+      <c r="B13" s="5" t="e">
+        <f>B12+'[1]20180607_Open'!B13</f>
+        <v>#REF!</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -4319,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>15895361</v>
+        <v>19845461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -4428,8 +4568,8 @@
         <v>42</v>
       </c>
       <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>131311375.16000001</v>
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
@@ -4442,7 +4582,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>53463671.93</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -4454,9 +4594,9 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="5" t="e">
         <f>$B$13+$E$10+$I$24</f>
-        <v>14909.490000000002</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4465,7 +4605,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>1888.39</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4518,18 +4658,20 @@
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13">
+        <v>2314</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-378503</v>
+        <v>1254298</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>19.09</v>
+        <v>18.53</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4550,18 +4692,20 @@
       <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="13">
+        <v>1083</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>857371</v>
+        <v>937568</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>18.22</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4582,18 +4726,20 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13">
+        <v>1171</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>20694</v>
+        <v>21145</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>17.829999999999998</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4614,18 +4760,20 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13">
+        <v>663</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-4606</v>
+        <v>-4506</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.100000000000001</v>
+        <v>17.63</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4648,7 +4796,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>0</v>
+        <v>5231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4674,7 +4822,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>2257</v>
+        <v>2678</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -4689,19 +4837,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-2117</v>
+        <v>-2553</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>2936015</v>
+        <v>2978261</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4711,13 +4859,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>12843</v>
+        <v>42246</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4744,7 +4892,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>19309</v>
+        <v>33259</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
@@ -4773,19 +4921,19 @@
         <v>56</v>
       </c>
       <c r="B43" s="13">
-        <v>2130</v>
+        <v>2139</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-6466</v>
+        <v>8987</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4793,14 +4941,14 @@
         <v>84</v>
       </c>
       <c r="B44" s="13">
-        <v>782</v>
+        <v>1020</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>305765</v>
+        <v>348011</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4808,7 +4956,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="13">
-        <v>989</v>
+        <v>1072</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -4826,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="13">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
@@ -4846,7 +4994,7 @@
       </c>
       <c r="B47" s="13">
         <f>SUM(B43:B46)</f>
-        <v>4374</v>
+        <v>4759</v>
       </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
@@ -4872,10 +5020,10 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="I48" s="13">
-        <v>-29</v>
+        <v>-35</v>
       </c>
       <c r="J48" s="13">
         <v>-43</v>
@@ -4889,10 +5037,10 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="I49" s="13">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="J49" s="13">
         <v>-109</v>
@@ -4912,10 +5060,10 @@
         <v>-17</v>
       </c>
       <c r="I50" s="13">
-        <v>-65</v>
+        <v>-67</v>
       </c>
       <c r="J50" s="13">
-        <v>-199</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -4934,6 +5082,871 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1500779.84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4878426.43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18449177.489999998</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2269841.08</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>20349987.559999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2608585.35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1900810.07</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5089896.1500000004</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>23191673.370000001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>30.23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180525_Open'!E10</f>
+        <v>3345.6000000000004</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180525_Open'!B11</f>
+        <v>8775.27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180525_Open'!B13</f>
+        <v>5712.61</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15029820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6951461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1581360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>13448460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>3028816.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>325290.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2252781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-450744.70999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4204.4799999999996</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>4204.4799999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>31310386.160000004</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>183.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>23310543.84</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>13262.689999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>239.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1431</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-22759</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>574656</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>17.57</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>335</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19232</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.48</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>463</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3132</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>17.88</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>2244</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1327</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>917</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2722694</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10407</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>6811</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3596</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-50</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-10</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -5797,7 +6810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -6659,7 +7672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -7523,7 +8536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -8374,7 +9387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9209,7 +10222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10048,7 +11061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10887,7 +11900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11718,7 +12731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12543,7 +13556,896 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="D51:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11285249.800000001</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10575759.73</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42694939.649999999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2848227.73</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>112985552.03999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7727532</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>70290612.390000001</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>114991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5362.59</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>395</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>59000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180606_Open'!E10</f>
+        <v>6816.0000000000009</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180606_Open'!B11</f>
+        <v>82931.209999999992</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>598.71</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180606_Open'!B13</f>
+        <v>8973.7999999999993</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>19940700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>15895361</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1606560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>18334140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>1974894.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2992590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-261332.01999999955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>5449.79</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>5449.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>147.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>53415061.649999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>21239.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1028.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2139</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-378503</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.09</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1020</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>857371</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.22</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1072</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>20694</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>528</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4606</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>4759</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2257</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-2117</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2936015</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>12843</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>19309</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2130</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-6466</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>782</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>305765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>989</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>473</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>4374</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-29</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-20</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-51</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-65</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13329,888 +15231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10718157.939999999</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9527725.3300000001</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>41910293.259999998</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>2490961.7799999998</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>114134591.77000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>7036763.5499999998</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>72224298.510000005</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>115991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>219.2</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>6140.57</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>462</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>61500000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180605_Open'!E10</f>
-        <v>6534.4000000000005</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180605_Open'!B11</f>
-        <v>77568.62</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1426.62</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180605_Open'!B13</f>
-        <v>8375.09</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>19205940</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>15545361</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-5639340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>13566600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2127219.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2883105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-218492.04999999981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5301.82</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>5301.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>222.21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>51830161.809999995</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>20211.310000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1868.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2130</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-342341</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>18.86</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>782</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>860582</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.37</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>989</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>23208</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>17.75</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>473</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-4664</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>4374</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>2257</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-2117</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2923172</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>9176</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>39900</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-30725</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>292922</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-30</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-21</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-52</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-20</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-67</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15003,7 +16024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15792,7 +16813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16570,7 +17591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17297,7 +18318,888 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10718157.939999999</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9527725.3300000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>41910293.259999998</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>2490961.7799999998</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>114134591.77000001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7036763.5499999998</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>72224298.510000005</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>219.2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6140.57</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>462</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>61500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180605_Open'!E10</f>
+        <v>6534.4000000000005</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180605_Open'!B11</f>
+        <v>77568.62</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1426.62</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180605_Open'!B13</f>
+        <v>8375.09</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>19205940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>15545361</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5639340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>13566600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2127219.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2883105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-218492.04999999981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>5301.82</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>5301.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>222.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>51830161.809999995</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>20211.310000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1868.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2130</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-342341</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>18.86</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>782</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>860582</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.37</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>989</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>23208</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>17.75</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>473</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4664</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>4374</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2257</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-2117</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2923172</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9176</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>39900</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-30725</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>292922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-21</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-52</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-20</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-67</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -18160,11 +20062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -19040,7 +20942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -19913,7 +21815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -20781,7 +22683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -21646,7 +23548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -22511,869 +24413,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1500779.84</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4878426.43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>18449177.489999998</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2269841.08</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>8</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>20349987.559999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2608585.35</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1900810.07</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>6</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5089896.1500000004</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23191673.370000001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>56</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>30.23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>55</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180525_Open'!E10</f>
-        <v>3345.6000000000004</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180525_Open'!B11</f>
-        <v>8775.27</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180525_Open'!B13</f>
-        <v>5712.61</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15029820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>6951461</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-1581360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>13448460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>3028816.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>325290.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2252781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-450744.70999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>4204.4799999999996</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>4204.4799999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>31310386.160000004</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>183.35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>23310543.84</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>13262.689999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>239.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1431</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-22759</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>574656</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>17.57</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>335</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>19232</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>17.48</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>463</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3132</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>17.88</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>2244</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1327</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>917</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2722694</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10407</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>6811</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3596</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>92444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-30</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-16</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-50</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-10</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-58</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,33 +12,34 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180613_Open" sheetId="28" r:id="rId1"/>
-    <sheet name="20180612_Open" sheetId="27" r:id="rId2"/>
-    <sheet name="20180611_Open" sheetId="26" r:id="rId3"/>
-    <sheet name="20180608_Open" sheetId="25" r:id="rId4"/>
-    <sheet name="20180607_Open " sheetId="24" r:id="rId5"/>
-    <sheet name="20180606_Open" sheetId="23" r:id="rId6"/>
-    <sheet name="20180605_Open" sheetId="22" r:id="rId7"/>
-    <sheet name="20180604_Open" sheetId="21" r:id="rId8"/>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId9"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId10"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId11"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId12"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId13"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId14"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId15"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId16"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId17"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId18"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId19"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId20"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId21"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId22"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId23"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId24"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId25"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId26"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId27"/>
+    <sheet name="20180614_Open" sheetId="29" r:id="rId1"/>
+    <sheet name="20180613_Open" sheetId="28" r:id="rId2"/>
+    <sheet name="20180612_Open" sheetId="27" r:id="rId3"/>
+    <sheet name="20180611_Open" sheetId="26" r:id="rId4"/>
+    <sheet name="20180608_Open" sheetId="25" r:id="rId5"/>
+    <sheet name="20180607_Open " sheetId="24" r:id="rId6"/>
+    <sheet name="20180606_Open" sheetId="23" r:id="rId7"/>
+    <sheet name="20180605_Open" sheetId="22" r:id="rId8"/>
+    <sheet name="20180604_Open" sheetId="21" r:id="rId9"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId10"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId11"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId12"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId13"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId14"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId15"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId16"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId17"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId18"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId19"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId20"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId21"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId22"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId23"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId24"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId25"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId26"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId27"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2344,6 +2345,121 @@
 </comments>
 </file>
 
+<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -3150,7 +3266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="86">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -4556,8 +4672,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>113991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>188.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180613_Open'!E10</f>
+        <v>2001.6000000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180613_Open'!B13</f>
+        <v>15181.739999999998</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1523.02</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180613_Open'!B13</f>
+        <v>16704.759999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>22886161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>18706.359999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1711.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2325</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>957246</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.74</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1583</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>976139</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1365</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19488</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>28.28</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6278</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3242</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-3036</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3040879</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>16516</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2316</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-24223</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1563</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>410629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1364</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>866</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>6109</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-64</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-12</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-82</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4598,11 +5576,15 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>10867877.439999999</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>9603272.0500000007</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4617,11 +5599,15 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>35269330.810000002</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="7">
+        <v>4692104.05</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4629,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4638,17 +5624,19 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>0</v>
+        <v>113469090.49000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>4911168</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -4656,7 +5644,9 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>78199759.680000007</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4665,11 +5655,9 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -4680,29 +5668,29 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>12089896.15</v>
+        <v>10089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>113991673.37</v>
+        <v>115991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>555.20000000000005</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="9"/>
@@ -4711,24 +5699,30 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>31882.240000000002</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>687</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>67300000</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180612_Open'!E10</f>
-        <v>1214.4000000000001</v>
+        <f>E8+'20180531_Open'!E10</f>
+        <v>4968</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -4736,7 +5730,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4744,8 +5738,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180612_Open'!B13</f>
-        <v>13266.249999999998</v>
+        <f>B9+'20180531_Open'!B11</f>
+        <v>55123.880000000005</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -4755,14 +5749,16 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-11</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>153.51</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -4774,29 +5770,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180612_Open'!B13</f>
-        <v>13266.249999999998</v>
+        <f>B12+'20180531_Open'!B13</f>
+        <v>6480.32</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>15736860</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>23733461</v>
+        <v>13304161</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>-5548200</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4810,7 +5808,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>0</v>
+        <v>10188660</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4833,14 +5831,18 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>2389444.27</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>2359962</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -4850,7 +5852,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-5228816.6399999997</v>
+        <v>-479410.37000000011</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4865,7 +5867,9 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <v>4860.1400000000003</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4892,7 +5896,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>0</v>
+        <v>4860.1400000000003</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4900,13 +5904,15 @@
         <v>42</v>
       </c>
       <c r="B25" s="5">
-        <f>B8+E7+I16</f>
+        <f>B8+E7+I16+B45</f>
         <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>345.7</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -4914,7 +5920,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>42540460.810000002</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -4928,7 +5934,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>14480.649999999998</v>
+        <v>16308.46</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4937,7 +5943,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>0</v>
+        <v>1054.4100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4991,19 +5997,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>2316</v>
+        <v>1726</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-1400830</v>
+        <v>-1961590</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>19.690000000000001</v>
+        <v>21.33</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5025,19 +6031,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>1563</v>
+        <v>613</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>1066814</v>
+        <v>512768</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>18.48</v>
+        <v>20.34</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5059,19 +6065,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>1364</v>
+        <v>586</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>17618</v>
+        <v>20183</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>18.07</v>
+        <v>19.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5093,19 +6099,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>866</v>
+        <v>508</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-6181</v>
+        <v>-3163</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.78</v>
+        <v>19.34</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5128,7 +6134,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>6109</v>
+        <v>3433</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5154,7 +6160,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>3165</v>
+        <v>1918</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -5169,19 +6175,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-2944</v>
+        <v>-1515</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>3048586</v>
+        <v>2815161</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5191,13 +6197,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>30835</v>
+        <v>36144</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5217,20 +6223,20 @@
     </row>
     <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" s="17"/>
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>33172</v>
+        <v>10792</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -5250,46 +6256,38 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2378</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-2338</v>
+        <v>25352</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.2999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1321</v>
+        <v>56</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>418336</v>
+        <v>184911</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="13">
-        <v>1316</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
         <v>70</v>
@@ -5305,9 +6303,7 @@
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="13">
-        <v>838</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="25" t="s">
@@ -5324,10 +6320,7 @@
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>5853</v>
-      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="6" t="s">
@@ -5346,62 +6339,58 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
       <c r="F48" s="13"/>
       <c r="G48" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="I48" s="13">
-        <v>-38</v>
+        <v>-31</v>
       </c>
       <c r="J48" s="13">
-        <v>-45</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
       <c r="F49" s="13"/>
       <c r="G49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="I49" s="13">
-        <v>-62</v>
+        <v>-45</v>
       </c>
       <c r="J49" s="13">
-        <v>-113</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="13"/>
       <c r="G50" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="I50" s="13">
-        <v>-80</v>
+        <v>-59</v>
       </c>
       <c r="J50" s="13">
-        <v>-209</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E53" s="15"/>
@@ -5414,7 +6403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -6282,7 +7271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -7147,7 +8136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -8014,7 +9003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -8879,7 +9868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -9743,7 +10732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10605,7 +11594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11469,7 +12458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12320,7 +13309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13155,7 +14144,901 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11314614.42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11084581.390000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>63795543.170000002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1795578.79</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>110113307.59</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9289002.5999999996</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>46317764.420000002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>113991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>598.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>608</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180612_Open'!E10</f>
+        <v>1812.8000000000002</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180612_Open'!B13</f>
+        <v>16416.25</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1915.49</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180612_Open'!B13</f>
+        <v>15181.739999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>20780040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>23733461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-8824980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11955060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2871352.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>3120273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>762808.86000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6334.91</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>6334.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>313.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>76204818.769999996</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>23329.449999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2316</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1400830</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1563</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1066814</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.48</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1364</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>17618</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.07</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>866</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-6181</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.78</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6109</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3165</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-2944</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3048586</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30835</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>33172</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2378</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-2338</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1321</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>418336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1316</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>838</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>5853</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-62</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-80</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13994,895 +15877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10272708.08</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>10294394.380000001</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>57235755.140000001</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1547424.13</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>111512024.56</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8746970.25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>54276269.420000002</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>113991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>558.4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3561.34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>670</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180611_Open'!E8</f>
-        <v>1214.4000000000001</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180611_Open'!B13</f>
-        <v>15639.839999999998</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1187.75</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180611_Open'!B13</f>
-        <v>13266.249999999998</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>21492961</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2041292.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2718189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-469335.02999999933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>6021.8</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>6021.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>182.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>68700914.390000001</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>20502.449999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1928.8500000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2378</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1032651</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>20.04</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1321</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>845389</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1316</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>15806</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.79</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>838</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-4995</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.37</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>5853</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>3002</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-2851</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3017751</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>37954</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>7931</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2263</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>30023</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1191</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>387501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1156</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13">
-        <v>705</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>5315</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-19</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-38</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-59</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-16</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-72</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15721,7 +16716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16552,7 +17547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17377,7 +18372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18163,7 +19158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18956,7 +19951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -19745,7 +20740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -20523,7 +21518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -21250,6 +22245,894 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10272708.08</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10294394.380000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57235755.140000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1547424.13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>111512024.56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8746970.25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>54276269.420000002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>113991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>558.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3561.34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>670</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180611_Open'!E8</f>
+        <v>1214.4000000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180611_Open'!B13</f>
+        <v>15639.839999999998</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1187.75</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180611_Open'!B13</f>
+        <v>13266.249999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>21492961</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2041292.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2718189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-469335.02999999933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6021.8</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>6021.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>68700914.390000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>20502.449999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>1928.8500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2378</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1032651</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.04</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1321</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>845389</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1316</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>15806</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.79</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>838</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4995</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.37</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>5853</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3002</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-2851</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3017751</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>37954</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7931</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2263</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>30023</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1191</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>387501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1156</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>705</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>5315</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-59</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-16</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-72</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
@@ -22134,7 +24017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -23023,7 +24906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -23912,7 +25795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -24793,7 +26676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -25660,7 +27543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -26538,877 +28421,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10867877.439999999</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9603272.0500000007</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>35269330.810000002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4692104.05</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>113469090.49000001</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4911168</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>78199759.680000007</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>115991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>555.20000000000005</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>31882.240000000002</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>687</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>67300000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180531_Open'!E10</f>
-        <v>4968</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180531_Open'!B11</f>
-        <v>55123.880000000005</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>153.51</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180531_Open'!B13</f>
-        <v>6480.32</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15736860</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13304161</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-5548200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>10188660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2389444.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2359962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-479410.37000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>4860.1400000000003</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>4860.1400000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>345.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>42540460.810000002</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>16308.46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>1054.4100000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1726</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1961590</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>21.33</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>613</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>512768</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>20.34</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>586</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>20183</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>508</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-3163</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.34</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>3433</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1918</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-1515</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2815161</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>36144</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10792</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>25352</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>184911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-19</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-31</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-45</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-16</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-59</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,34 +12,35 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180614_Open" sheetId="29" r:id="rId1"/>
-    <sheet name="20180613_Open" sheetId="28" r:id="rId2"/>
-    <sheet name="20180612_Open" sheetId="27" r:id="rId3"/>
-    <sheet name="20180611_Open" sheetId="26" r:id="rId4"/>
-    <sheet name="20180608_Open" sheetId="25" r:id="rId5"/>
-    <sheet name="20180607_Open " sheetId="24" r:id="rId6"/>
-    <sheet name="20180606_Open" sheetId="23" r:id="rId7"/>
-    <sheet name="20180605_Open" sheetId="22" r:id="rId8"/>
-    <sheet name="20180604_Open" sheetId="21" r:id="rId9"/>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId10"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId11"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId12"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId13"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId14"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId15"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId16"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId17"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId18"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId19"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId20"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId21"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId22"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId23"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId24"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId25"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId26"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId27"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId28"/>
+    <sheet name="20180615_Open" sheetId="30" r:id="rId1"/>
+    <sheet name="20180614_Open" sheetId="29" r:id="rId2"/>
+    <sheet name="20180613_Open" sheetId="28" r:id="rId3"/>
+    <sheet name="20180612_Open" sheetId="27" r:id="rId4"/>
+    <sheet name="20180611_Open" sheetId="26" r:id="rId5"/>
+    <sheet name="20180608_Open" sheetId="25" r:id="rId6"/>
+    <sheet name="20180607_Open " sheetId="24" r:id="rId7"/>
+    <sheet name="20180606_Open" sheetId="23" r:id="rId8"/>
+    <sheet name="20180605_Open" sheetId="22" r:id="rId9"/>
+    <sheet name="20180604_Open" sheetId="21" r:id="rId10"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId11"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId12"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId13"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId14"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId15"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId16"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId17"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId18"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId19"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId20"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId21"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId22"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId23"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId24"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId25"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId26"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId27"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId28"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2460,6 +2461,121 @@
 </comments>
 </file>
 
+<file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -3266,7 +3382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="87">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3634,6 +3750,10 @@
   <si>
     <t>上日期权持仓</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐含理论盈亏</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4672,7 +4792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4740,10 +4862,10 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4811,13 +4933,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>113991673.37</v>
+        <v>112991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>188.8</v>
+        <v>379.2</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4831,7 +4953,9 @@
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>573</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4843,8 +4967,8 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180613_Open'!E10</f>
-        <v>2001.6000000000001</v>
+        <f>E8+'20180614_Open'!E10</f>
+        <v>2380.8000000000002</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -4852,7 +4976,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4860,8 +4984,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180613_Open'!B13</f>
-        <v>15181.739999999998</v>
+        <f>B9+'20180614_Open'!B13</f>
+        <v>16704.759999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -4871,7 +4995,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4879,7 +5003,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>1523.02</v>
+        <v>1466.4</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -4892,8 +5016,8 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180613_Open'!B13</f>
-        <v>16704.759999999998</v>
+        <f>B12+'20180614_Open'!B13</f>
+        <v>18171.16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
@@ -4907,7 +5031,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>22886161</v>
+        <v>25008361</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
@@ -4939,7 +5063,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>5228816.6399999997</v>
+        <v>6228816.6399999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -4966,7 +5090,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-5228816.6399999997</v>
+        <v>-6228816.6399999997</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,7 +5168,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>18706.359999999997</v>
+        <v>20551.96</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5053,7 +5177,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>1711.82</v>
+        <v>1845.6000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5107,19 +5231,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>2325</v>
+        <v>2575</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>957246</v>
+        <v>650982</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>20.74</v>
+        <v>21.73</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5141,19 +5265,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>1583</v>
+        <v>1698</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>976139</v>
+        <v>738389</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>18.75</v>
+        <v>19.52</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5175,19 +5299,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>1365</v>
+        <v>1490</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>19488</v>
+        <v>13704</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>28.28</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5209,19 +5333,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>1005</v>
+        <v>1068</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-7707</v>
+        <v>-4428</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.600000000000001</v>
+        <v>18.84</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5244,7 +5368,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>6278</v>
+        <v>6831</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5270,7 +5394,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>3242</v>
+        <v>3469</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -5285,19 +5409,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-3036</v>
+        <v>-3362</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>3040879</v>
+        <v>3057780</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5307,7 +5431,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>-7707</v>
+        <v>16901</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
@@ -5340,7 +5464,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>16516</v>
+        <v>29940</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
@@ -5369,13 +5493,13 @@
         <v>56</v>
       </c>
       <c r="B43" s="13">
-        <v>2316</v>
+        <v>2325</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-24223</v>
+        <v>-13040</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
@@ -5389,14 +5513,14 @@
         <v>84</v>
       </c>
       <c r="B44" s="13">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>410629</v>
+        <v>427530</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5404,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="13">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -5422,10 +5546,15 @@
         <v>76</v>
       </c>
       <c r="B46" s="13">
-        <v>866</v>
+        <v>1005</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3561588</v>
+      </c>
       <c r="H46" s="25" t="s">
         <v>78</v>
       </c>
@@ -5442,7 +5571,7 @@
       </c>
       <c r="B47" s="13">
         <f>SUM(B43:B46)</f>
-        <v>6109</v>
+        <v>6278</v>
       </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
@@ -5468,13 +5597,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="I48" s="13">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="J48" s="13">
-        <v>-44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5486,13 +5615,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="I49" s="13">
-        <v>-64</v>
+        <v>-32</v>
       </c>
       <c r="J49" s="13">
-        <v>-117</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5506,13 +5635,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="I50" s="13">
-        <v>-82</v>
+        <v>-54</v>
       </c>
       <c r="J50" s="13">
-        <v>-207</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5531,6 +5660,886 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6893267.1799999997</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9410580.2200000007</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35977470.119999997</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3956205.07</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>113379613.91999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5454375.1500000004</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>77402143.799999997</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>345.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8876.6200000000008</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>471</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>70500000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180601_Open'!E10</f>
+        <v>5313.6</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180601_Open'!B11</f>
+        <v>64000.500000000007</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>208.03</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180601_Open'!B13</f>
+        <v>6688.3499999999995</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15638580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13612361</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-789480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>14849100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2329391.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>2344257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-555167.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>5055.5600000000004</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>5055.5600000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16+B45</f>
+        <v>131310972.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>145.41999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>43776102.269999996</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>17057.510000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>699.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-721746</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.33</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>471960</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>20.34</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>18527</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2826</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.34</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2044</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-1715</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2870824</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>55664</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>47739</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1726</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>7925</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>613</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>240574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>586</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>508</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>3433</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-19</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-30</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-20</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-45</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-21</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-57</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -6403,7 +7412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -7271,7 +8280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -8136,7 +9145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -9003,7 +10012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -9868,7 +10877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -10732,7 +11741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11594,7 +12603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12458,7 +13467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13309,7 +14318,901 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13591218.9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11090055.59</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>61151822.189999998</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1740333.91</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>109746024.34999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9349721.6799999997</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>48594202.159999996</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>112991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>188.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2983.26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>211</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180613_Open'!E10</f>
+        <v>2001.6000000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180613_Open'!B13</f>
+        <v>18165</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1523.02</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180613_Open'!B13</f>
+        <v>16704.759999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>23809380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>22886161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-4764000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>19045380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>6228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2316353.0499999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>3571407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-341056.58999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6905.36</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>6905.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>570.45000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>74072950.870000005</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>25611.719999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2282.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2325</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>957246</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.74</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1583</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>976139</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1365</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19488</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>28.28</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6278</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3242</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-3036</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3040879</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>16516</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2316</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-24223</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1563</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>410629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1364</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>866</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>6109</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-64</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-12</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-82</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -14144,901 +16047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>11314614.42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>11084581.390000001</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>63795543.170000002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1795578.79</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>110113307.59</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9289002.5999999996</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>46317764.420000002</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>113991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>598.4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3150</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>608</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180612_Open'!E10</f>
-        <v>1812.8000000000002</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180612_Open'!B13</f>
-        <v>16416.25</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1915.49</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180612_Open'!B13</f>
-        <v>15181.739999999998</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>20780040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>23733461</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-8824980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>11955060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2871352.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>3120273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>762808.86000000034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>6334.91</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>6334.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>313.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>76204818.769999996</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>23329.449999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2316</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1400830</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1563</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>1066814</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.48</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1364</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>17618</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.07</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>866</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-6181</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>18.78</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>6109</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>3165</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-2944</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3048586</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>30835</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>33172</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2378</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-2338</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1321</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>418336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1316</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13">
-        <v>838</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>5853</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-38</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-62</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-80</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -15877,7 +16886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16716,7 +17725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17547,7 +18556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18372,7 +19381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -19158,7 +20167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -19951,7 +20960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -20740,7 +21749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -21518,7 +22527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -22245,6 +23254,900 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11314614.42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11084581.390000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>63795543.170000002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1795578.79</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>110113307.59</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9289002.5999999996</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>46317764.420000002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>113991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>598.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3150</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>608</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180612_Open'!E10</f>
+        <v>1812.8000000000002</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180612_Open'!B13</f>
+        <v>16416.25</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1915.49</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180612_Open'!B13</f>
+        <v>15181.739999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>20780040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>23733461</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-8824980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>11955060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>5228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2871352.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>3120273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>762808.86000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6334.91</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>6334.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>313.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>76204818.769999996</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>23329.449999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2316</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-1400830</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1563</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1066814</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.48</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1364</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>17618</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.07</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>866</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-6181</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.78</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6109</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3165</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-2944</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3048586</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30835</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>33172</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2378</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-2338</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1321</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>418336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1316</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>838</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>5853</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-62</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-80</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
     <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
@@ -23129,7 +25032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -24017,7 +25920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -24906,7 +26809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -25795,7 +27698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -26676,7 +28579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -27541,884 +29444,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>6893267.1799999997</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>9410580.2200000007</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>35977470.119999997</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3956205.07</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>113379613.91999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5454375.1500000004</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>77402143.799999997</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>115991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>345.6</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8876.6200000000008</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>471</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>70500000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180601_Open'!E10</f>
-        <v>5313.6</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180601_Open'!B11</f>
-        <v>64000.500000000007</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>208.03</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180601_Open'!B13</f>
-        <v>6688.3499999999995</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>15638580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13612361</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-789480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>14849100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2329391.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>2344257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-555167.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5055.5600000000004</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>5055.5600000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16+B45</f>
-        <v>131310972.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>145.41999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>43776102.269999996</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>17057.510000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>699.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-721746</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>21.33</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>471960</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>20.34</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>18527</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-2826</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>19.34</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>2044</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-1715</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2870824</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>55664</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>47739</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1726</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>7925</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>613</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
-        <v>586</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13">
-        <v>508</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>3433</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-19</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-30</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-20</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-45</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-21</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-57</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/期权自营财务记录.xlsx
+++ b/期权自营财务记录.xlsx
@@ -12,35 +12,36 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180615_Open" sheetId="30" r:id="rId1"/>
-    <sheet name="20180614_Open" sheetId="29" r:id="rId2"/>
-    <sheet name="20180613_Open" sheetId="28" r:id="rId3"/>
-    <sheet name="20180612_Open" sheetId="27" r:id="rId4"/>
-    <sheet name="20180611_Open" sheetId="26" r:id="rId5"/>
-    <sheet name="20180608_Open" sheetId="25" r:id="rId6"/>
-    <sheet name="20180607_Open " sheetId="24" r:id="rId7"/>
-    <sheet name="20180606_Open" sheetId="23" r:id="rId8"/>
-    <sheet name="20180605_Open" sheetId="22" r:id="rId9"/>
-    <sheet name="20180604_Open" sheetId="21" r:id="rId10"/>
-    <sheet name="20180601_Open" sheetId="20" r:id="rId11"/>
-    <sheet name="20180531_Open" sheetId="19" r:id="rId12"/>
-    <sheet name="20180530_Open" sheetId="18" r:id="rId13"/>
-    <sheet name="20180529_Open " sheetId="17" r:id="rId14"/>
-    <sheet name="20180528_Open" sheetId="16" r:id="rId15"/>
-    <sheet name="20180525_Open" sheetId="15" r:id="rId16"/>
-    <sheet name="20180524_Open" sheetId="14" r:id="rId17"/>
-    <sheet name="20180523_Open" sheetId="13" r:id="rId18"/>
-    <sheet name="20180522_Open" sheetId="12" r:id="rId19"/>
-    <sheet name="20180521_Open" sheetId="11" r:id="rId20"/>
-    <sheet name="20180518_Open" sheetId="10" r:id="rId21"/>
-    <sheet name="20180517_Open" sheetId="9" r:id="rId22"/>
-    <sheet name="20180516_Open" sheetId="8" r:id="rId23"/>
-    <sheet name="20180515_Open" sheetId="7" r:id="rId24"/>
-    <sheet name="20180514_Open " sheetId="6" r:id="rId25"/>
-    <sheet name="20180511_Open" sheetId="5" r:id="rId26"/>
-    <sheet name="20180510_Open" sheetId="4" r:id="rId27"/>
-    <sheet name="20180509_Open" sheetId="3" r:id="rId28"/>
-    <sheet name="20180508_Open" sheetId="2" r:id="rId29"/>
+    <sheet name="20180616_Open" sheetId="31" r:id="rId1"/>
+    <sheet name="20180615_Open" sheetId="30" r:id="rId2"/>
+    <sheet name="20180614_Open" sheetId="29" r:id="rId3"/>
+    <sheet name="20180613_Open" sheetId="28" r:id="rId4"/>
+    <sheet name="20180612_Open" sheetId="27" r:id="rId5"/>
+    <sheet name="20180611_Open" sheetId="26" r:id="rId6"/>
+    <sheet name="20180608_Open" sheetId="25" r:id="rId7"/>
+    <sheet name="20180607_Open " sheetId="24" r:id="rId8"/>
+    <sheet name="20180606_Open" sheetId="23" r:id="rId9"/>
+    <sheet name="20180605_Open" sheetId="22" r:id="rId10"/>
+    <sheet name="20180604_Open" sheetId="21" r:id="rId11"/>
+    <sheet name="20180601_Open" sheetId="20" r:id="rId12"/>
+    <sheet name="20180531_Open" sheetId="19" r:id="rId13"/>
+    <sheet name="20180530_Open" sheetId="18" r:id="rId14"/>
+    <sheet name="20180529_Open " sheetId="17" r:id="rId15"/>
+    <sheet name="20180528_Open" sheetId="16" r:id="rId16"/>
+    <sheet name="20180525_Open" sheetId="15" r:id="rId17"/>
+    <sheet name="20180524_Open" sheetId="14" r:id="rId18"/>
+    <sheet name="20180523_Open" sheetId="13" r:id="rId19"/>
+    <sheet name="20180522_Open" sheetId="12" r:id="rId20"/>
+    <sheet name="20180521_Open" sheetId="11" r:id="rId21"/>
+    <sheet name="20180518_Open" sheetId="10" r:id="rId22"/>
+    <sheet name="20180517_Open" sheetId="9" r:id="rId23"/>
+    <sheet name="20180516_Open" sheetId="8" r:id="rId24"/>
+    <sheet name="20180515_Open" sheetId="7" r:id="rId25"/>
+    <sheet name="20180514_Open " sheetId="6" r:id="rId26"/>
+    <sheet name="20180511_Open" sheetId="5" r:id="rId27"/>
+    <sheet name="20180510_Open" sheetId="4" r:id="rId28"/>
+    <sheet name="20180509_Open" sheetId="3" r:id="rId29"/>
+    <sheet name="20180508_Open" sheetId="2" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2691,6 +2692,121 @@
 </comments>
 </file>
 
+<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+20160912从302账户转入2111账户200万
+20160913从302账户转入2111账户80万
+20160913从211账户转入2111账户500万
+20161130从2111账户转入211账户1000万
+20161202从现货账户201转800万至期权账户211，从现货账户201转500万至期货账户2111
+20161206从现货账户201转500万至期权账户211，从现货账户201转1000万至期货账户2111
+20161215从资金中心总共入账1个亿资金，其中现货账户201入账9500万，期货账户2111入账500万
+20161223从现货账户201转账500万至期货账户211
+20161230从期权账户211转账800万至期货账户2111
+20170119 现货201转170,000,000至现货账户302，期权211转2,000,000至现货账户302，期货账户2111转7,800,000至现货账户302
+20170120 期货账户2111转9,000,000元至现货账户201。
+期权账户211转5,000,000元至现货账户201
+20170207 现货账户201转5,000,000元至期货账户211
+20170208 现货账户201转5,000,000元至期货账户211
+20170214 现货账户201转3,000,000元至期货账户2111
+20170214 现货账户201转3,000,000元至期权账户211
+20170221 期货账户2111转5,000,000元至现货账户201
+20170224 现货账户201转3,000,000元至现货账户2111</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月20日股指期货交割，根网系统期货余额有差别：
+根网余额：13,173,154.57
+交易所余额：
+13,171,017.22</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -3382,7 +3498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="89">
   <si>
     <t>账户信息汇总</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -3754,6 +3870,14 @@
   <si>
     <t>隐含理论盈亏</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH 1808</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4792,8 +4916,873 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="H4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="9">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>112991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>513.6</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180615_Open'!E10</f>
+        <v>10206.400000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180615_Open'!B11</f>
+        <v>116856.85999999997</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1591.88</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180615_Open'!B13</f>
+        <v>19763.04</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>25205161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>6228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-6228816.6399999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>29969.440000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2105.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2474</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1356979</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22.31</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1907</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>758128</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>20.2</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1544</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>15643</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>19.04</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1033</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4699</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>19.11</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6958</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3538</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-3420</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3108690</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>50910</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>22760</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2575</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>28150</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1698</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>478440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1490</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1068</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3538432</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>6831</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-27</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-48</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4834,11 +5823,15 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>9550849.7100000009</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>9494423.3499999996</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4853,16 +5846,20 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>32893994.25</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="26">
+        <v>3608709.7</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="9">
         <v>-2</v>
@@ -4874,17 +5871,19 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>0</v>
+        <v>113952271.51000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>5885713.6500000004</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -4892,7 +5891,9 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>81058277.260000005</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4901,11 +5902,9 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>13</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -4916,30 +5915,28 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>12089896.15</v>
+        <v>10089896.15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>112991673.37</v>
+        <v>115991673.37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>379.2</v>
+        <v>1001.6</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4949,26 +5946,28 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>7427.55</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10">
-        <v>573</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5">
+        <v>71500000</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180614_Open'!E10</f>
-        <v>2380.8000000000002</v>
+        <f>E8+'20180604_Open'!E10</f>
+        <v>6315.2000000000007</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -4976,7 +5975,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4984,8 +5983,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180614_Open'!B13</f>
-        <v>16704.759999999998</v>
+        <f>B9+'20180604_Open'!B11</f>
+        <v>71428.05</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -4995,7 +5994,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5003,7 +6002,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>1466.4</v>
+        <v>260.12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -5016,28 +6015,32 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180614_Open'!B13</f>
-        <v>18171.16</v>
+        <f>B12+'20180604_Open'!B13</f>
+        <v>6948.4699999999993</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>18333480</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>25008361</v>
+        <v>12246461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>-1605720</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -5050,7 +6053,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>0</v>
+        <v>16727760</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,7 +6066,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11">
-        <v>6228816.6399999997</v>
+        <v>5228816.6399999997</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5073,14 +6076,18 @@
         <v>34</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>2199921.7999999998</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>2748915</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -5090,7 +6097,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-6228816.6399999997</v>
+        <v>-279979.83999999985</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5105,7 +6112,9 @@
       <c r="H21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <v>5079.6099999999997</v>
+      </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -5132,7 +6141,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>0</v>
+        <v>5079.6099999999997</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -5140,13 +6149,15 @@
         <v>42</v>
       </c>
       <c r="B25" s="5">
-        <f>B8+E7+I16</f>
+        <f>B8+E7+I16+B45</f>
         <v>131310386.16000001</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>74.05</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -5154,7 +6165,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>0</v>
+        <v>41528622.899999999</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -5168,7 +6179,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>20551.96</v>
+        <v>18343.28</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5177,7 +6188,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>1845.6000000000001</v>
+        <v>1335.77</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5230,20 +6241,18 @@
       <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13">
-        <v>2575</v>
-      </c>
+      <c r="B34" s="13"/>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>650982</v>
+        <v>-1162709</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>21.73</v>
+        <v>18.93</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5264,20 +6273,18 @@
       <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="13">
-        <v>1698</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>738389</v>
+        <v>79485</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>19.52</v>
+        <v>18.87</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5298,20 +6305,18 @@
       <c r="A36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13">
-        <v>1490</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>13704</v>
+        <v>21262</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>18.739999999999998</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5332,20 +6337,18 @@
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="13">
-        <v>1068</v>
-      </c>
+      <c r="B37" s="13"/>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-4428</v>
+        <v>-4650</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>18.84</v>
+        <v>18.43</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5368,7 +6371,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>6831</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5393,9 +6396,7 @@
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="13">
-        <v>3469</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
@@ -5408,20 +6409,18 @@
       <c r="A40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="13">
-        <v>-3362</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>3057780</v>
+        <v>2913997</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5431,13 +6430,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>16901</v>
+        <v>43173</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5464,13 +6463,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>29940</v>
+        <v>-2874</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.7E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -5492,44 +6491,38 @@
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="13">
-        <v>2325</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>-13040</v>
+        <v>46047</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.7E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="13">
-        <v>1583</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>427530</v>
+        <v>283747</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="13">
-        <v>1365</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
         <v>70</v>
@@ -5545,16 +6538,9 @@
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="13">
-        <v>1005</v>
-      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="5">
-        <v>3561588</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="H46" s="25" t="s">
         <v>78</v>
       </c>
@@ -5571,7 +6557,7 @@
       </c>
       <c r="B47" s="13">
         <f>SUM(B43:B46)</f>
-        <v>6278</v>
+        <v>0</v>
       </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
@@ -5597,31 +6583,30 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="I48" s="13">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J48" s="13">
-        <v>0</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
       <c r="F49" s="13"/>
       <c r="G49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>6</v>
+        <v>-22</v>
       </c>
       <c r="I49" s="13">
-        <v>-32</v>
+        <v>-47</v>
       </c>
       <c r="J49" s="13">
-        <v>-70</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5635,13 +6620,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>9</v>
+        <v>-23</v>
       </c>
       <c r="I50" s="13">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="J50" s="13">
-        <v>-157</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5659,7 +6644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -6539,7 +7524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -7412,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -8280,7 +9265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -9145,7 +10130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -10012,7 +10997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
@@ -10877,7 +11862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -11741,7 +12726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -12603,7 +13588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -13467,7 +14452,906 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12915150.960000001</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11884987.210000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>66897365.68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1299675.5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>108821898.53999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10585311.710000001</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41924532.859999999</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>112991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>379.2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9381.9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>573</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>29000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180614_Open'!E10</f>
+        <v>9692.8000000000011</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180614_Open'!B11</f>
+        <v>116856.85999999997</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1466.4</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180614_Open'!B13</f>
+        <v>18171.16</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>24669180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>25008361</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-5581260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>19087920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>6228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2239378.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>3703185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-286252.97999999952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>7089.75</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>7089.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>184.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>81185862.390000001</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>34953.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2029.9900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2575</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>650982</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>21.73</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1698</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>738389</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>19.52</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1490</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>13704</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1068</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-4428</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.84</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6831</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3469</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-3362</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3057780</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>16901</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>29940</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2325</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-13040</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1583</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1365</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1005</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3561588</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>6278</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>6</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-32</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>9</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-54</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -14318,901 +16202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:E50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>13591218.9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>11090055.59</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>61151822.189999998</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1740333.91</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>109746024.34999999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9349721.6799999997</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>48594202.159999996</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>13</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>112991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>188.8</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2983.26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>211</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180613_Open'!E10</f>
-        <v>2001.6000000000001</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180613_Open'!B13</f>
-        <v>18165</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1523.02</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180613_Open'!B13</f>
-        <v>16704.759999999998</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>23809380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>22886161</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-4764000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>19045380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>6228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2316353.0499999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>3571407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>-341056.58999999985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>6905.36</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>6905.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>570.45000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>74072950.870000005</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>25611.719999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>2282.27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2325</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>957246</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>20.74</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1583</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>976139</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.75</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1365</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>19488</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>28.28</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>1005</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-7707</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>6278</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>3242</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-3036</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3040879</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>-7707</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>16516</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2316</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-24223</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1563</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>410629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1364</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13">
-        <v>866</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>6109</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-38</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-64</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-12</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-82</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16047,7 +17037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -16886,7 +17876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -17725,7 +18715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -18556,7 +19546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -19381,7 +20371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -20167,7 +21157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -20960,7 +21950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -21749,7 +22739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -22527,7 +23517,901 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>13591218.9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11090055.59</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>61151822.189999998</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1740333.91</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>109746024.34999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9349721.6799999997</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>48594202.159999996</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>112991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>188.8</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2983.26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>211</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180613_Open'!E10</f>
+        <v>9313.6</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180613_Open'!B11</f>
+        <v>107474.95999999998</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1523.02</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180613_Open'!B13</f>
+        <v>16704.759999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11">
+        <v>23809380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>22886161</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-4764000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11">
+        <f>I13+I14</f>
+        <v>19045380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11">
+        <v>6228816.6399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11">
+        <v>2316353.0499999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11">
+        <v>3571407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
+        <f>I17+I18-I16</f>
+        <v>-341056.58999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6905.36</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="11">
+        <f>SUM(I21:I23)</f>
+        <v>6905.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B8+E7+I16</f>
+        <v>131310386.16000001</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="5">
+        <v>570.45000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B4+E5+I18</f>
+        <v>74072950.870000005</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <f>$B$13+$E$10+$I$24</f>
+        <v>32923.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B12+E8+I25</f>
+        <v>2282.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2325</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5">
+        <v>957246</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="23">
+        <v>20.74</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1583</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="15">
+        <v>976139</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1365</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="15">
+        <v>19488</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="23">
+        <v>28.28</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1005</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="23">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13">
+        <f>SUM(B34:B37)</f>
+        <v>6278</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3242</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13">
+        <v>-3036</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3040879</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-7707</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5">
+        <v>16516</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2316</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-24223</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1563</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="5">
+        <f>E40-E45</f>
+        <v>410629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1364</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2630250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="13">
+        <v>866</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="H46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="13">
+        <f>SUM(B43:B46)</f>
+        <v>6109</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="5"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-17</v>
+      </c>
+      <c r="I48" s="13">
+        <v>-38</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-15</v>
+      </c>
+      <c r="I49" s="13">
+        <v>-64</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-12</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-82</v>
+      </c>
+      <c r="J50" s="13">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W50"/>
   <sheetViews>
@@ -23250,905 +25134,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>11314614.42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>11084581.390000001</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>63795543.170000002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1795578.79</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+B6</f>
-        <v>110113307.59</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9289002.5999999996</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>46317764.420000002</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12089896.15</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>113991673.37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>598.4</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3150</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10">
-        <v>608</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35000000</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <f>E8+'20180612_Open'!E10</f>
-        <v>1812.8000000000002</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10">
-        <f>SUM(I4:I7)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B9+'20180612_Open'!B13</f>
-        <v>16416.25</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10">
-        <f>SUM(J4:J7)</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1915.49</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>B12+'20180612_Open'!B13</f>
-        <v>15181.739999999998</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="11">
-        <v>20780040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10">
-        <v>23733461</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-8824980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="11">
-        <f>I13+I14</f>
-        <v>11955060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="11">
-        <v>5228816.6399999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11">
-        <v>2871352.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11">
-        <v>3120273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11">
-        <f>I17+I18-I16</f>
-        <v>762808.86000000034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <v>6334.91</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="11">
-        <f>SUM(I21:I23)</f>
-        <v>6334.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <f>B8+E7+I16</f>
-        <v>131310386.16000001</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5">
-        <v>313.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="5">
-        <f>B4+E5+I18</f>
-        <v>76204818.769999996</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <f>$B$13+$E$10+$I$24</f>
-        <v>23329.449999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5">
-        <f>B12+E8+I25</f>
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2316</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1400830</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="23">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1563</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="15">
-        <v>1066814</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="23">
-        <v>18.48</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1364</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="15">
-        <v>17618</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="23">
-        <v>18.07</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="13">
-        <v>866</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-6181</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="23">
-        <v>18.78</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13">
-        <f>SUM(B34:B37)</f>
-        <v>6109</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="13">
-        <v>3165</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <v>-2944</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3048586</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="5">
-        <v>30835</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="5">
-        <v>33172</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="22">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="13">
-        <v>2378</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-2338</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="22">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1321</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="5">
-        <f>E40-E45</f>
-        <v>418336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1316</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2630250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13">
-        <v>838</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="H46" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="13">
-        <f>SUM(B43:B46)</f>
-        <v>5853</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="13">
-        <v>-17</v>
-      </c>
-      <c r="I48" s="13">
-        <v>-38</v>
-      </c>
-      <c r="J48" s="13">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I49" s="13">
-        <v>-62</v>
-      </c>
-      <c r="J49" s="13">
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="13">
-        <v>-15</v>
-      </c>
-      <c r="I50" s="13">
-        <v>-80</v>
-      </c>
-      <c r="J50" s="13">
-        <v>-209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -24191,13 +25181,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>10272708.08</v>
+        <v>11314614.42</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>10294394.380000001</v>
+        <v>11084581.390000001</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>3</v>
@@ -24214,13 +25204,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>57235755.140000001</v>
+        <v>63795543.170000002</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="26">
-        <v>1547424.13</v>
+        <v>1795578.79</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
@@ -24229,7 +25219,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>-3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -24238,19 +25228,19 @@
       </c>
       <c r="B5" s="5">
         <f>B4+B6</f>
-        <v>111512024.56</v>
+        <v>110113307.59</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>8746970.25</v>
+        <v>9289002.5999999996</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -24259,7 +25249,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>54276269.420000002</v>
+        <v>46317764.420000002</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -24269,9 +25259,11 @@
         <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24290,7 +25282,9 @@
       <c r="I7" s="9">
         <v>4</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -24303,7 +25297,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>558.4</v>
+        <v>598.4</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -24314,13 +25308,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>3561.34</v>
+        <v>3150</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -24329,14 +25323,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="5">
-        <v>44000000</v>
+        <v>35000000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <f>E8+'20180611_Open'!E8</f>
-        <v>1214.4000000000001</v>
+        <f>E8+'20180612_Open'!E10</f>
+        <v>9124.8000000000011</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -24344,7 +25338,7 @@
       </c>
       <c r="I10" s="10">
         <f>SUM(I4:I7)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -24352,8 +25346,8 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <f>B9+'20180611_Open'!B13</f>
-        <v>15639.839999999998</v>
+        <f>B9+'20180612_Open'!B11</f>
+        <v>104491.69999999998</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
@@ -24363,7 +25357,7 @@
       </c>
       <c r="I11" s="10">
         <f>SUM(J4:J7)</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -24371,7 +25365,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>1187.75</v>
+        <v>1915.49</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="6" t="s">
@@ -24384,29 +25378,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+'20180611_Open'!B13</f>
-        <v>13266.249999999998</v>
+        <f>B12+'20180612_Open'!B13</f>
+        <v>15181.739999999998</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>20780040</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>21492961</v>
+        <v>23733461</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>-8824980</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -24420,7 +25416,7 @@
       </c>
       <c r="I15" s="11">
         <f>I13+I14</f>
-        <v>0</v>
+        <v>11955060</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -24444,7 +25440,7 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="11">
-        <v>2041292.61</v>
+        <v>2871352.5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -24453,7 +25449,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11">
-        <v>2718189</v>
+        <v>3120273</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -24464,7 +25460,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <f>I17+I18-I16</f>
-        <v>-469335.02999999933</v>
+        <v>762808.86000000034</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -24480,7 +25476,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="11">
-        <v>6021.8</v>
+        <v>6334.91</v>
       </c>
       <c r="N21" s="5"/>
     </row>
@@ -24508,7 +25504,7 @@
       </c>
       <c r="I24" s="11">
         <f>SUM(I21:I23)</f>
-        <v>6021.8</v>
+        <v>6334.91</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -24523,7 +25519,7 @@
         <v>45</v>
       </c>
       <c r="I25" s="5">
-        <v>182.7</v>
+        <v>313.11</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -24532,7 +25528,7 @@
       </c>
       <c r="B26" s="5">
         <f>B4+E5+I18</f>
-        <v>68700914.390000001</v>
+        <v>76204818.769999996</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
@@ -24546,7 +25542,7 @@
       </c>
       <c r="B27" s="5">
         <f>$B$13+$E$10+$I$24</f>
-        <v>20502.449999999997</v>
+        <v>30641.45</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -24555,7 +25551,7 @@
       </c>
       <c r="B28" s="5">
         <f>B12+E8+I25</f>
-        <v>1928.8500000000001</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -24609,19 +25605,19 @@
         <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>2378</v>
+        <v>2316</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="5">
-        <v>-1032651</v>
+        <v>-1400830</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="23">
-        <v>20.04</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -24643,19 +25639,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="13">
-        <v>1321</v>
+        <v>1563</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="15">
-        <v>845389</v>
+        <v>1066814</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="23">
-        <v>19.260000000000002</v>
+        <v>18.48</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -24677,19 +25673,19 @@
         <v>58</v>
       </c>
       <c r="B36" s="13">
-        <v>1316</v>
+        <v>1364</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="15">
-        <v>15806</v>
+        <v>17618</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H36" s="23">
-        <v>18.79</v>
+        <v>18.07</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -24711,19 +25707,19 @@
         <v>76</v>
       </c>
       <c r="B37" s="13">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>-4995</v>
+        <v>-6181</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="23">
-        <v>19.37</v>
+        <v>18.78</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -24746,7 +25742,7 @@
       </c>
       <c r="B38" s="13">
         <f>SUM(B34:B37)</f>
-        <v>5853</v>
+        <v>6109</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -24772,7 +25768,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="13">
-        <v>3002</v>
+        <v>3165</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>62</v>
@@ -24787,19 +25783,19 @@
         <v>63</v>
       </c>
       <c r="B40" s="13">
-        <v>-2851</v>
+        <v>-2944</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="5">
-        <v>3017751</v>
+        <v>3048586</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="22">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24809,13 +25805,13 @@
         <v>65</v>
       </c>
       <c r="E41" s="5">
-        <v>37954</v>
+        <v>30835</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="22">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -24842,13 +25838,13 @@
         <v>66</v>
       </c>
       <c r="E42" s="5">
-        <v>7931</v>
+        <v>33172</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H42" s="22">
-        <v>2.3E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -24871,19 +25867,19 @@
         <v>56</v>
       </c>
       <c r="B43" s="13">
-        <v>2263</v>
+        <v>2378</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="5">
-        <v>30023</v>
+        <v>-2338</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="22">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -24891,14 +25887,14 @@
         <v>84</v>
       </c>
       <c r="B44" s="13">
-        <v>1191</v>
+        <v>1321</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="5">
         <f>E40-E45</f>
-        <v>387501</v>
+        <v>418336</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -24906,7 +25902,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="13">
-        <v>1156</v>
+        <v>1316</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -24924,7 +25920,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="13">
-        <v>705</v>
+        <v>838</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="5"/>
@@ -24944,7 +25940,7 @@
       </c>
       <c r="B47" s="13">
         <f>SUM(B43:B46)</f>
-        <v>5315</v>
+        <v>5853</v>
       </c>
       <c r="C47" s="18"/>
       <c r="F47" s="18"/>
@@ -24970,13 +25966,13 @@
         <v>84</v>
       </c>
       <c r="H48" s="13">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="I48" s="13">
         <v>-38</v>
       </c>
       <c r="J48" s="13">
-        <v>-42</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -24988,13 +25984,13 @@
         <v>58</v>
       </c>
       <c r="H49" s="13">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="I49" s="13">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="J49" s="13">
-        <v>-108</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -25008,13 +26004,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="13">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="I50" s="13">
-        <v>-72</v>
+        <v>-80</v>
       </c>
       <c r="J50" s="13">
-        <v>-197</v>
+        <v>-209</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -25036,7 +26032,895 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10272708.08</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10294394.380000001</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>57235755.140000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1547424.13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+B6</f>
+        <v>111512024.56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8746970.25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>54276269.420000002</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12089896.15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>113991673.37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>558.4</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3561.34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>670</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44000000</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <f>E8+'20180611_Open'!E10</f>
+        <v>8526.4000000000015</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM(I4:I7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B9+'20180611_Open'!B11</f>
+        <v>101341.69999999998</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1187.75</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+'20180611_Open'!B13</f>
+        <v>13266.249999999998</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>21492961</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c